--- a/Документы/Профиль_нагрузки.xlsx
+++ b/Документы/Профиль_нагрузки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LoadRunner\LRProjects\Скрипты\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24793A32-71C1-4786-AD14-FAD06D5E0959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCECDFD-4457-4AC5-84CF-2C88DAFE7EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="108" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -525,9 +525,6 @@
     <t>UC5_BuyTicket</t>
   </si>
   <si>
-    <t>vuser_end_Transaction</t>
-  </si>
-  <si>
     <t>vuser_init_Transaction</t>
   </si>
   <si>
@@ -535,13 +532,16 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>UC6_Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,8 +820,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF8E8E8E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1085,8 +1092,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1488,6 +1501,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1572,7 +1594,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1617,7 +1639,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1684,11 +1705,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="32" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="28" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1726,6 +1742,10 @@
     <xf numFmtId="2" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="66" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="2" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1741,12 +1761,25 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="66" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="2" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="33" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="81">
@@ -1832,48 +1865,216 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="70">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="168" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1888,8 +2089,973 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3077" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7FA54C-6071-3675-BB21-7EA8E61ADB4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="952500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3078" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD9021F-AB03-BDC7-D3C8-0DE69D4EC523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1143000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3079" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7759D7D-27A6-C2A4-3597-36BB1D976DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1333500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3080" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6E6BFD-9A25-653A-0135-7C398146FCEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1524000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3081" name="AutoShape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A03088-9EFB-B148-07A2-81EBDD576C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1714500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3082" name="AutoShape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FC3DBB-5F73-C168-F2B3-D0625A3F1D9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1905000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3083" name="AutoShape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D9C5B0-2BE7-C39A-75FC-9215133DACFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="2095500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3084" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C520393C-6AEA-3641-9BA6-7B5A110620CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="2286000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3093" name="AutoShape 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC5F597-EAB9-27EB-B7EC-DB069D795E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="3992880"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3099" name="AutoShape 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CA98EB-0BBE-63E3-9D97-83F52AADE5CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1143000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3100" name="AutoShape 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF17A18-C04F-7AE0-B5BF-3E8D707D59F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1333500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3101" name="AutoShape 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71B87FB-882C-84E3-0F9E-2D1F98489BA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1524000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3102" name="AutoShape 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE38975-3ED0-AADD-E420-DD3F6B9D740F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1714500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3103" name="AutoShape 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433EB5B6-E7A4-A38C-9CE4-03C5D8A4269F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1905000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3104" name="AutoShape 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC7FC2F-0B95-CE53-5D9D-51DB3B96F0C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="2095500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3105" name="AutoShape 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34801691-ECD9-E909-C65E-5B8EFA492BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="2286000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3120" name="AutoShape 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC336DE-121C-85D2-44DD-6AE86B20188F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1333500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3121" name="AutoShape 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA4ADC2-2B80-A37F-3C60-7D738A41E6C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1524000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3123" name="AutoShape 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6CEF4F-655F-1E4B-426D-0942264286DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="1905000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3124" name="AutoShape 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C0DB69-A25F-CE8B-A658-96EA3588515F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2499360" y="2095500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Егор Дементьев" refreshedDate="45329.448500578706" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="33" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Егор Дементьев" refreshedDate="45330.425015277775" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="33" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H34" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1918,10 +3084,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="VU" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
     </cacheField>
     <cacheField name="pacing" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="64"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="39" maxValue="120"/>
     </cacheField>
     <cacheField name="одним пользователем в минуту" numFmtId="2">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1.5384615384615385"/>
@@ -1930,7 +3096,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
     </cacheField>
     <cacheField name="Итого" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="56.25"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="55.384615384615387"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1948,60 +3114,60 @@
     <x v="0"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="64"/>
-    <n v="0.9375"/>
+    <n v="65"/>
+    <n v="0.92307692307692313"/>
     <n v="20"/>
-    <n v="56.25"/>
+    <n v="55.384615384615387"/>
   </r>
   <r>
     <s v="Покупка билета"/>
     <x v="1"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="64"/>
-    <n v="0.9375"/>
+    <n v="65"/>
+    <n v="0.92307692307692313"/>
     <n v="20"/>
-    <n v="56.25"/>
+    <n v="55.384615384615387"/>
   </r>
   <r>
     <s v="Покупка билета"/>
     <x v="2"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="64"/>
-    <n v="0.9375"/>
+    <n v="65"/>
+    <n v="0.92307692307692313"/>
     <n v="20"/>
-    <n v="56.25"/>
+    <n v="55.384615384615387"/>
   </r>
   <r>
     <s v="Покупка билета"/>
     <x v="3"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="64"/>
-    <n v="0.9375"/>
+    <n v="65"/>
+    <n v="0.92307692307692313"/>
     <n v="20"/>
-    <n v="56.25"/>
+    <n v="55.384615384615387"/>
   </r>
   <r>
     <s v="Покупка билета"/>
     <x v="4"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="64"/>
-    <n v="0.9375"/>
+    <n v="65"/>
+    <n v="0.92307692307692313"/>
     <n v="20"/>
-    <n v="56.25"/>
+    <n v="55.384615384615387"/>
   </r>
   <r>
     <s v="Покупка билета"/>
     <x v="5"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="64"/>
-    <n v="0.9375"/>
+    <n v="65"/>
+    <n v="0.92307692307692313"/>
     <n v="20"/>
-    <n v="56.25"/>
+    <n v="55.384615384615387"/>
   </r>
   <r>
     <s v="Удаление бронирования "/>
@@ -2116,39 +3282,49 @@
   <r>
     <s v="Логин"/>
     <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="120"/>
+    <n v="0.5"/>
     <n v="20"/>
-    <n v="0"/>
+    <n v="10"/>
   </r>
   <r>
     <s v="Логин"/>
     <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="120"/>
+    <n v="0.5"/>
     <n v="20"/>
-    <n v="0"/>
+    <n v="10"/>
   </r>
   <r>
     <s v="Логин"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="120"/>
+    <n v="0.5"/>
     <n v="20"/>
-    <n v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="Логин"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="120"/>
+    <n v="0.5"/>
+    <n v="20"/>
+    <n v="10"/>
   </r>
   <r>
     <s v="Логин"/>
     <x v="8"/>
     <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="1"/>
+    <n v="120"/>
     <n v="0"/>
     <n v="20"/>
     <n v="0"/>
@@ -2158,67 +3334,57 @@
     <x v="0"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="61"/>
-    <n v="0.98360655737704916"/>
+    <n v="70"/>
+    <n v="0.8571428571428571"/>
     <n v="20"/>
-    <n v="39.344262295081968"/>
+    <n v="34.285714285714285"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="1"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="61"/>
-    <n v="0.98360655737704916"/>
+    <n v="70"/>
+    <n v="0.8571428571428571"/>
     <n v="20"/>
-    <n v="39.344262295081968"/>
+    <n v="34.285714285714285"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="2"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="61"/>
-    <n v="0.98360655737704916"/>
+    <n v="70"/>
+    <n v="0.8571428571428571"/>
     <n v="20"/>
-    <n v="39.344262295081968"/>
+    <n v="34.285714285714285"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="3"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="61"/>
-    <n v="0.98360655737704916"/>
+    <n v="70"/>
+    <n v="0.8571428571428571"/>
     <n v="20"/>
-    <n v="39.344262295081968"/>
+    <n v="34.285714285714285"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="4"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="61"/>
-    <n v="0.98360655737704916"/>
+    <n v="70"/>
+    <n v="0.8571428571428571"/>
     <n v="20"/>
-    <n v="39.344262295081968"/>
-  </r>
-  <r>
-    <s v="Поиск билета без покупки"/>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="61"/>
-    <n v="0.98360655737704916"/>
-    <n v="20"/>
-    <n v="19.672131147540984"/>
+    <n v="34.285714285714285"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="8"/>
     <n v="0"/>
     <n v="2"/>
-    <n v="61"/>
+    <n v="70"/>
     <n v="0"/>
     <n v="20"/>
     <n v="0"/>
@@ -2228,10 +3394,10 @@
     <x v="8"/>
     <n v="1"/>
     <n v="3"/>
-    <n v="64"/>
-    <n v="0.9375"/>
+    <n v="65"/>
+    <n v="0.92307692307692313"/>
     <n v="20"/>
-    <n v="56.25"/>
+    <n v="55.384615384615387"/>
   </r>
   <r>
     <s v="Ознакомление с путевым листом"/>
@@ -2277,7 +3443,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2357,25 +3523,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="13">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2656,8 +3822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:R5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2714,432 +3880,432 @@
       <c r="J1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="79">
         <v>1</v>
       </c>
-      <c r="D2" s="86">
+      <c r="D2" s="80">
         <f>VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E2" s="87">
+      <c r="E2" s="81">
         <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
-        <v>64</v>
-      </c>
-      <c r="F2" s="88">
-        <f t="shared" ref="F2:F18" si="0">60/E2*C2</f>
-        <v>0.9375</v>
-      </c>
-      <c r="G2" s="87">
+        <v>65</v>
+      </c>
+      <c r="F2" s="82">
+        <f t="shared" ref="F2:F23" si="0">60/E2*C2</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G2" s="81">
         <f t="shared" ref="G2:G34" si="1">VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="89">
+      <c r="H2" s="83">
         <f>D2*F2*G2</f>
-        <v>56.25</v>
+        <v>55.384615384615387</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="17">
-        <v>143.67118537200503</v>
-      </c>
-      <c r="M2" s="42" t="s">
+        <v>147.74725274725273</v>
+      </c>
+      <c r="M2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="18">
         <v>5</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="35">
         <v>30</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="36">
         <f>N2+O2</f>
         <v>35</v>
       </c>
-      <c r="Q2" s="25">
-        <v>64</v>
-      </c>
-      <c r="R2" s="45">
+      <c r="Q2" s="24">
+        <v>65</v>
+      </c>
+      <c r="R2" s="44">
         <v>3</v>
       </c>
-      <c r="S2" s="46">
+      <c r="S2" s="45">
         <f t="shared" ref="S2:S7" si="2">R2/W$2</f>
-        <v>0.375</v>
-      </c>
-      <c r="T2" s="60">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T2" s="59">
         <f>60/(Q2)</f>
-        <v>0.9375</v>
-      </c>
-      <c r="U2" s="49">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="U2" s="48">
         <v>20</v>
       </c>
-      <c r="V2" s="50">
+      <c r="V2" s="49">
         <f>ROUND(R2*T2*U2,0)</f>
-        <v>56</v>
-      </c>
-      <c r="W2" s="29">
+        <v>55</v>
+      </c>
+      <c r="W2" s="28">
         <f>SUM(R2:R7)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="78" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="79">
         <v>1</v>
       </c>
-      <c r="D3" s="90">
+      <c r="D3" s="84">
         <f>VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="87">
+      <c r="E3" s="81">
         <f>VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
-        <v>64</v>
-      </c>
-      <c r="F3" s="88">
+        <v>65</v>
+      </c>
+      <c r="F3" s="82">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
-      </c>
-      <c r="G3" s="87">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G3" s="81">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H3" s="89">
+      <c r="H3" s="83">
         <f>D3*F3*G3</f>
-        <v>56.25</v>
+        <v>55.384615384615387</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="17">
-        <v>95.594262295081961</v>
-      </c>
-      <c r="M3" s="42" t="s">
+        <v>89.670329670329664</v>
+      </c>
+      <c r="M3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="18">
         <v>5</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="35">
         <v>20.0014</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="36">
         <f t="shared" ref="P3:P7" si="3">N3+O3</f>
         <v>25.0014</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="24">
         <v>52</v>
       </c>
-      <c r="R3" s="45">
+      <c r="R3" s="44">
         <v>1</v>
       </c>
-      <c r="S3" s="46">
+      <c r="S3" s="45">
         <f t="shared" si="2"/>
-        <v>0.125</v>
-      </c>
-      <c r="T3" s="60">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T3" s="59">
         <f>60/(Q3)</f>
         <v>1.1538461538461537</v>
       </c>
-      <c r="U3" s="49">
+      <c r="U3" s="48">
         <v>20</v>
       </c>
-      <c r="V3" s="50">
+      <c r="V3" s="49">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>23</v>
       </c>
-      <c r="W3" s="29"/>
+      <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="79">
         <v>1</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="84">
         <f>VLOOKUP(A5,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="87">
+      <c r="E4" s="81">
         <f>VLOOKUP(A5,$M$1:$X$8,5,FALSE)</f>
-        <v>64</v>
-      </c>
-      <c r="F4" s="88">
+        <v>65</v>
+      </c>
+      <c r="F4" s="82">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
-      </c>
-      <c r="G4" s="87">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G4" s="81">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H4" s="89">
+      <c r="H4" s="83">
         <f>D4*F4*G4</f>
-        <v>56.25</v>
+        <v>55.384615384615387</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="17">
-        <v>104.32692307692307</v>
-      </c>
-      <c r="M4" s="42" t="s">
+        <v>103.46153846153845</v>
+      </c>
+      <c r="M4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="18">
         <v>5</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="35">
         <v>20</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="36">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="24">
         <v>39</v>
       </c>
-      <c r="R4" s="45">
+      <c r="R4" s="44">
         <v>1</v>
       </c>
-      <c r="S4" s="46">
+      <c r="S4" s="45">
         <f t="shared" si="2"/>
-        <v>0.125</v>
-      </c>
-      <c r="T4" s="60">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T4" s="59">
         <f t="shared" ref="T4:T7" si="4">60/(Q4)</f>
         <v>1.5384615384615385</v>
       </c>
-      <c r="U4" s="49">
+      <c r="U4" s="48">
         <v>20</v>
       </c>
-      <c r="V4" s="50">
+      <c r="V4" s="49">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>31</v>
       </c>
-      <c r="W4" s="29"/>
+      <c r="W4" s="28"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="79">
         <v>1</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="84">
         <f>VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E5" s="87">
+      <c r="E5" s="81">
         <f>VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
-        <v>64</v>
-      </c>
-      <c r="F5" s="88">
+        <v>65</v>
+      </c>
+      <c r="F5" s="82">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
-      </c>
-      <c r="G5" s="87">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G5" s="81">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="83">
         <f t="shared" ref="H5" si="5">D5*F5*G5</f>
-        <v>56.25</v>
+        <v>55.384615384615387</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="17">
-        <v>95.594262295081961</v>
-      </c>
-      <c r="M5" s="42" t="s">
+        <v>89.670329670329664</v>
+      </c>
+      <c r="M5" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="18">
         <v>5</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="35">
+        <v>20</v>
+      </c>
+      <c r="P5" s="36">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="P5" s="37">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Q5" s="25">
-        <v>61</v>
-      </c>
-      <c r="R5" s="45">
+      <c r="Q5" s="24">
+        <v>70</v>
+      </c>
+      <c r="R5" s="44">
         <v>2</v>
       </c>
-      <c r="S5" s="46">
+      <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="T5" s="60">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="T5" s="59">
         <f t="shared" si="4"/>
-        <v>0.98360655737704916</v>
-      </c>
-      <c r="U5" s="49">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U5" s="48">
         <v>20</v>
       </c>
-      <c r="V5" s="50">
+      <c r="V5" s="49">
         <f>ROUND(R5*T5*U5,0)</f>
-        <v>39</v>
-      </c>
-      <c r="W5" s="29"/>
+        <v>34</v>
+      </c>
+      <c r="W5" s="28"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="79">
         <v>1</v>
       </c>
-      <c r="D6" s="90">
-        <f t="shared" ref="D6:D27" si="6">VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
+      <c r="D6" s="84">
+        <f t="shared" ref="D6:D28" si="6">VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="81">
         <f t="shared" ref="E6:E34" si="7">VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
-        <v>64</v>
-      </c>
-      <c r="F6" s="88">
+        <v>65</v>
+      </c>
+      <c r="F6" s="82">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
-      </c>
-      <c r="G6" s="87">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G6" s="81">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H6" s="89">
+      <c r="H6" s="83">
         <f t="shared" ref="H6:H16" si="8">D6*F6*G6</f>
-        <v>56.25</v>
+        <v>55.384615384615387</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="17">
-        <v>56.25</v>
-      </c>
-      <c r="M6" s="42" t="s">
+        <v>55.384615384615387</v>
+      </c>
+      <c r="M6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <v>3</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="35">
         <v>15</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="36">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="24">
         <v>48</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="44">
         <v>1</v>
       </c>
-      <c r="S6" s="46">
+      <c r="S6" s="45">
         <f t="shared" si="2"/>
-        <v>0.125</v>
-      </c>
-      <c r="T6" s="60">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T6" s="59">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="U6" s="49">
+      <c r="U6" s="48">
         <v>20</v>
       </c>
-      <c r="V6" s="50">
+      <c r="V6" s="49">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>25</v>
       </c>
-      <c r="W6" s="29"/>
+      <c r="W6" s="28"/>
     </row>
     <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="79">
         <v>1</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="84">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E7" s="87">
+      <c r="E7" s="81">
         <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-      <c r="F7" s="88">
+        <v>65</v>
+      </c>
+      <c r="F7" s="82">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
-      </c>
-      <c r="G7" s="87">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G7" s="81">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="83">
         <f t="shared" si="8"/>
-        <v>56.25</v>
+        <v>55.384615384615387</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>13</v>
@@ -3147,69 +4313,69 @@
       <c r="J7" s="17">
         <v>23.076923076923073</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="35">
-        <v>0</v>
-      </c>
-      <c r="O7" s="62">
-        <v>0</v>
-      </c>
-      <c r="P7" s="62">
+      <c r="N7" s="113">
+        <v>4</v>
+      </c>
+      <c r="O7" s="114">
+        <v>15</v>
+      </c>
+      <c r="P7" s="111">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="62">
-        <v>0</v>
-      </c>
-      <c r="R7" s="63">
-        <v>0</v>
-      </c>
-      <c r="S7" s="64">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>120</v>
+      </c>
+      <c r="R7" s="44">
+        <v>1</v>
+      </c>
+      <c r="S7" s="112">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="65" t="e">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T7" s="59">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="60">
         <v>20</v>
       </c>
-      <c r="V7" s="67">
+      <c r="V7" s="61">
         <f>SUM(V2:V6)</f>
-        <v>174</v>
-      </c>
-      <c r="W7" s="68"/>
+        <v>168</v>
+      </c>
+      <c r="W7" s="62"/>
     </row>
     <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>1</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="108">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="105">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="106">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="107">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="105">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
@@ -3217,50 +4383,50 @@
         <v>4</v>
       </c>
       <c r="J8" s="17">
-        <v>98.51828499369482</v>
-      </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="51">
+        <v>88.84615384615384</v>
+      </c>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="50">
         <f>SUM(S2:S7)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="59"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="30"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="29"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="104">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="105">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="106">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="107">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="105">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
@@ -3268,36 +4434,36 @@
         <v>62</v>
       </c>
       <c r="J9" s="17">
-        <v>174.4404161412358</v>
+        <v>178.5164835164835</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>1</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="104">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="105">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="106">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="107">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="105">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
@@ -3309,32 +4475,32 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="104">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="105">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="106">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="107">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="105">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
@@ -3346,32 +4512,32 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>1</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="109">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="105">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="106">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="107">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="105">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
@@ -3383,32 +4549,32 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="97">
+      <c r="C13" s="91">
         <v>1</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="92">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="93">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F13" s="100">
+      <c r="F13" s="94">
         <f t="shared" si="0"/>
         <v>1.5384615384615385</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="95">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H13" s="99">
+      <c r="H13" s="93">
         <f t="shared" si="8"/>
         <v>30.76923076923077</v>
       </c>
@@ -3416,36 +4582,36 @@
         <v>69</v>
       </c>
       <c r="J13" s="17">
-        <v>95.594262295081961</v>
+        <v>99.670329670329664</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="91">
         <v>1</v>
       </c>
-      <c r="D14" s="102">
+      <c r="D14" s="96">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E14" s="99">
+      <c r="E14" s="93">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F14" s="100">
+      <c r="F14" s="94">
         <f t="shared" si="0"/>
         <v>1.5384615384615385</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="95">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H14" s="99">
+      <c r="H14" s="93">
         <f t="shared" si="8"/>
         <v>30.76923076923077</v>
       </c>
@@ -3453,1087 +4619,1095 @@
         <v>41</v>
       </c>
       <c r="J14" s="17">
-        <v>979.37421185371988</v>
+        <v>968.35164835164812</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="91">
         <v>1</v>
       </c>
-      <c r="D15" s="102">
+      <c r="D15" s="96">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E15" s="99">
+      <c r="E15" s="93">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F15" s="100">
+      <c r="F15" s="94">
         <f t="shared" si="0"/>
         <v>1.5384615384615385</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="95">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H15" s="99">
+      <c r="H15" s="93">
         <f t="shared" si="8"/>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="91">
         <v>1</v>
       </c>
-      <c r="D16" s="102">
+      <c r="D16" s="96">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="93">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F16" s="100">
+      <c r="F16" s="94">
         <f t="shared" si="0"/>
         <v>1.5384615384615385</v>
       </c>
-      <c r="G16" s="101">
+      <c r="G16" s="95">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H16" s="99">
+      <c r="H16" s="93">
         <f t="shared" si="8"/>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="91">
         <v>1</v>
       </c>
-      <c r="D17" s="102">
+      <c r="D17" s="96">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="93">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F17" s="100">
+      <c r="F17" s="94">
         <f t="shared" si="0"/>
         <v>1.5384615384615385</v>
       </c>
-      <c r="G17" s="101">
+      <c r="G17" s="95">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H17" s="99">
+      <c r="H17" s="93">
         <f t="shared" ref="H17" si="9">D17*F17*G17</f>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="91">
         <v>0</v>
       </c>
-      <c r="D18" s="102">
+      <c r="D18" s="96">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="93">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F18" s="100">
+      <c r="F18" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="101">
+      <c r="G18" s="95">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H18" s="99">
+      <c r="H18" s="93">
         <f t="shared" ref="H18" si="10">D18*F18*G18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="70">
-        <v>0</v>
-      </c>
-      <c r="D19" s="71">
+      <c r="C19" s="64">
+        <v>1</v>
+      </c>
+      <c r="D19" s="65">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="72">
+        <v>1</v>
+      </c>
+      <c r="E19" s="66">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="73">
-        <v>0</v>
-      </c>
-      <c r="G19" s="72">
+        <v>120</v>
+      </c>
+      <c r="F19" s="67">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="66">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H19" s="74">
+      <c r="H19" s="68">
         <f>D19*F19*G19</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="63" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="70">
-        <v>0</v>
-      </c>
-      <c r="D20" s="75">
+      <c r="C20" s="64">
+        <v>1</v>
+      </c>
+      <c r="D20" s="69">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="72">
+        <v>1</v>
+      </c>
+      <c r="E20" s="66">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="73">
-        <v>0</v>
-      </c>
-      <c r="G20" s="72">
+        <v>120</v>
+      </c>
+      <c r="F20" s="67">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="66">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="68">
         <f t="shared" ref="H20:H34" si="11">D20*F20*G20</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="70">
-        <v>0</v>
-      </c>
-      <c r="D21" s="75">
+      <c r="B21" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="64">
+        <v>1</v>
+      </c>
+      <c r="D21" s="69">
+        <f t="shared" ref="D21" si="12">VLOOKUP(A21,$M$1:$X$8,6,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="66">
+        <f t="shared" ref="E21" si="13">VLOOKUP(A21,$M$1:$X$8,5,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="F21" s="67">
+        <f t="shared" ref="F21" si="14">60/E21*C21</f>
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="66">
+        <f t="shared" ref="G21" si="15">VLOOKUP(A21,$M$1:$X$8,9,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H21" s="68">
+        <f t="shared" ref="H21" si="16">D21*F21*G21</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="64">
+        <v>1</v>
+      </c>
+      <c r="D22" s="69">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="72">
+        <v>1</v>
+      </c>
+      <c r="E22" s="66">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="73">
-        <v>0</v>
-      </c>
-      <c r="G21" s="72">
+        <v>120</v>
+      </c>
+      <c r="F22" s="67">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="66">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H21" s="74">
+      <c r="H22" s="68">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="64">
+        <v>0</v>
+      </c>
+      <c r="D23" s="70">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="66">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="F23" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="66">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H23" s="68">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="70">
-        <v>0</v>
-      </c>
-      <c r="D22" s="76">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="86">
+        <v>1</v>
+      </c>
+      <c r="D24" s="87">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="72">
+        <v>2</v>
+      </c>
+      <c r="E24" s="88">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="73">
-        <v>0</v>
-      </c>
-      <c r="G22" s="72">
+        <v>70</v>
+      </c>
+      <c r="F24" s="89">
+        <f t="shared" ref="F24:F34" si="17">60/E24*C24</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G24" s="88">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H24" s="90">
         <f t="shared" si="11"/>
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="86" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="92">
+      <c r="C25" s="86">
         <v>1</v>
       </c>
-      <c r="D23" s="93">
+      <c r="D25" s="87">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E25" s="88">
         <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="F23" s="95">
-        <f t="shared" ref="F23:F34" si="12">60/E23*C23</f>
-        <v>0.98360655737704916</v>
-      </c>
-      <c r="G23" s="94">
+        <v>70</v>
+      </c>
+      <c r="F25" s="89">
+        <f t="shared" si="17"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G25" s="88">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H23" s="96">
+      <c r="H25" s="90">
         <f t="shared" si="11"/>
-        <v>39.344262295081968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="92" t="s">
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="92">
+      <c r="B26" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="86">
         <v>1</v>
       </c>
-      <c r="D24" s="93">
+      <c r="D26" s="87">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E24" s="94">
+      <c r="E26" s="88">
         <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="F24" s="95">
-        <f t="shared" si="12"/>
-        <v>0.98360655737704916</v>
-      </c>
-      <c r="G24" s="94">
+        <v>70</v>
+      </c>
+      <c r="F26" s="89">
+        <f t="shared" si="17"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G26" s="88">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H24" s="96">
+      <c r="H26" s="90">
         <f t="shared" si="11"/>
-        <v>39.344262295081968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="92" t="s">
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="92">
+      <c r="B27" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="86">
         <v>1</v>
       </c>
-      <c r="D25" s="93">
+      <c r="D27" s="87">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E25" s="94">
+      <c r="E27" s="88">
         <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="F25" s="95">
-        <f t="shared" si="12"/>
-        <v>0.98360655737704916</v>
-      </c>
-      <c r="G25" s="94">
+        <v>70</v>
+      </c>
+      <c r="F27" s="89">
+        <f t="shared" si="17"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G27" s="88">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H25" s="96">
+      <c r="H27" s="90">
         <f t="shared" si="11"/>
-        <v>39.344262295081968</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="92" t="s">
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="92">
+      <c r="B28" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="86">
         <v>1</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D28" s="87">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E28" s="88">
         <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="F26" s="95">
-        <f t="shared" si="12"/>
-        <v>0.98360655737704916</v>
-      </c>
-      <c r="G26" s="94">
+        <v>70</v>
+      </c>
+      <c r="F28" s="89">
+        <f t="shared" si="17"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G28" s="88">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H26" s="96">
-        <f t="shared" si="11"/>
-        <v>39.344262295081968</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="92" t="s">
+      <c r="H28" s="90">
+        <f t="shared" ref="H28" si="18">D28*F28*G28</f>
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="92">
-        <v>1</v>
-      </c>
-      <c r="D27" s="93">
-        <f t="shared" si="6"/>
+      <c r="B29" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="86">
+        <v>0</v>
+      </c>
+      <c r="D29" s="87">
+        <f t="shared" ref="D29:D34" si="19">VLOOKUP(A29,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E27" s="94">
+      <c r="E29" s="88">
         <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="F27" s="95">
-        <f t="shared" si="12"/>
-        <v>0.98360655737704916</v>
-      </c>
-      <c r="G27" s="94">
+        <v>70</v>
+      </c>
+      <c r="F29" s="89">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="88">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H27" s="96">
-        <f t="shared" ref="H27" si="13">D27*F27*G27</f>
-        <v>39.344262295081968</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="92">
+      <c r="H29" s="90">
+        <f>D29*F29*G29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="78">
         <v>1</v>
       </c>
-      <c r="D28" s="93">
-        <v>1</v>
-      </c>
-      <c r="E28" s="94">
+      <c r="D30" s="85">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="E30" s="81">
         <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="F28" s="95">
-        <f t="shared" si="12"/>
-        <v>0.98360655737704916</v>
-      </c>
-      <c r="G28" s="94">
+        <v>65</v>
+      </c>
+      <c r="F30" s="82">
+        <f t="shared" si="17"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G30" s="81">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H28" s="96">
-        <f t="shared" ref="H28" si="14">D28*F28*G28</f>
-        <v>19.672131147540984</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="92">
-        <v>0</v>
-      </c>
-      <c r="D29" s="93">
-        <f t="shared" ref="D29:D34" si="15">VLOOKUP(A29,$M$1:$X$8,6,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E29" s="94">
+      <c r="H30" s="83">
+        <f>D30*F30*G30</f>
+        <v>55.384615384615387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="71">
+        <v>1</v>
+      </c>
+      <c r="D31" s="72">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="73">
         <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="F29" s="95">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="94">
+        <v>48</v>
+      </c>
+      <c r="F31" s="74">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="G31" s="73">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H29" s="96">
-        <f>D29*F29*G29</f>
+      <c r="H31" s="75">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="71" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="84">
+      <c r="C32" s="71">
         <v>1</v>
       </c>
-      <c r="D30" s="91">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="E30" s="87">
+      <c r="D32" s="76">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="73">
         <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-      <c r="F30" s="88">
-        <f t="shared" si="12"/>
-        <v>0.9375</v>
-      </c>
-      <c r="G30" s="87">
+        <v>48</v>
+      </c>
+      <c r="F32" s="74">
+        <f t="shared" si="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="G32" s="73">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H30" s="89">
-        <f>D30*F30*G30</f>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="77" t="s">
+      <c r="H32" s="75">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="77">
+      <c r="B33" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="71">
         <v>1</v>
       </c>
-      <c r="D31" s="78">
-        <f t="shared" si="15"/>
+      <c r="D33" s="76">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="E31" s="79">
+      <c r="E33" s="73">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="F31" s="80">
-        <f t="shared" si="12"/>
+      <c r="F33" s="74">
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-      <c r="G31" s="79">
+      <c r="G33" s="73">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H31" s="81">
+      <c r="H33" s="75">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="77" t="s">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="77">
+      <c r="B34" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="71">
         <v>1</v>
       </c>
-      <c r="D32" s="82">
-        <f t="shared" si="15"/>
+      <c r="D34" s="77">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="E32" s="79">
+      <c r="E34" s="73">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="F32" s="80">
-        <f t="shared" si="12"/>
+      <c r="F34" s="74">
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-      <c r="G32" s="79">
+      <c r="G34" s="73">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H32" s="81">
+      <c r="H34" s="75">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="77">
-        <v>1</v>
-      </c>
-      <c r="D33" s="82">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="E33" s="79">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="F33" s="80">
-        <f t="shared" si="12"/>
-        <v>1.25</v>
-      </c>
-      <c r="G33" s="79">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H33" s="81">
-        <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="77">
-        <v>1</v>
-      </c>
-      <c r="D34" s="83">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="E34" s="79">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="F34" s="80">
-        <f t="shared" si="12"/>
-        <v>1.25</v>
-      </c>
-      <c r="G34" s="79">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H34" s="81">
-        <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-    </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="103" t="s">
+      <c r="A38" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="104"/>
-      <c r="C38" s="105" t="s">
+      <c r="B38" s="100"/>
+      <c r="C38" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="106"/>
+      <c r="D38" s="102"/>
     </row>
     <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.35">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="56" t="s">
+      <c r="E39" s="32"/>
+      <c r="F39" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="53">
+      <c r="B40" s="52">
         <v>520</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="36">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A40)*3</f>
-        <v>523.3212484237074</v>
-      </c>
-      <c r="D40" s="20">
+        <v>535.54945054945051</v>
+      </c>
+      <c r="D40" s="19">
         <f>1-B40/C40</f>
-        <v>6.3464811217035511E-3</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="57" t="str">
+        <v>2.903457474094584E-2</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="56" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_welcome_page</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="33">
         <f>C40/3</f>
-        <v>174.4404161412358</v>
-      </c>
-      <c r="H40" s="23">
+        <v>178.5164835164835</v>
+      </c>
+      <c r="H40" s="22">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
         <v>187</v>
       </c>
-      <c r="I40" s="21">
-        <f t="shared" ref="I40:I51" si="16">1-G40/H40</f>
-        <v>6.716355004686736E-2</v>
+      <c r="I40" s="20">
+        <f t="shared" ref="I40:I51" si="20">1-G40/H40</f>
+        <v>4.5366398307574829E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="53">
+      <c r="B41" s="52">
         <v>422</v>
       </c>
-      <c r="C41" s="37">
-        <f t="shared" ref="C41:C51" si="17">GETPIVOTDATA("Итого",$I$1,"transaction rq",A41)*3</f>
-        <v>431.01355611601508</v>
-      </c>
-      <c r="D41" s="20">
+      <c r="C41" s="36">
+        <f t="shared" ref="C41:C51" si="21">GETPIVOTDATA("Итого",$I$1,"transaction rq",A41)*3</f>
+        <v>443.24175824175819</v>
+      </c>
+      <c r="D41" s="19">
         <f>1-B41/C41</f>
-        <v>2.0912465485398601E-2</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="57" t="str">
+        <v>4.7923639519028005E-2</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="56" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>login</v>
       </c>
-      <c r="G41" s="34">
-        <f t="shared" ref="G41:G51" si="18">C41/3</f>
-        <v>143.67118537200503</v>
-      </c>
-      <c r="H41" s="23">
+      <c r="G41" s="33">
+        <f t="shared" ref="G41:G51" si="22">C41/3</f>
+        <v>147.74725274725273</v>
+      </c>
+      <c r="H41" s="22">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
-        <v>154</v>
-      </c>
-      <c r="I41" s="21">
-        <f t="shared" si="16"/>
-        <v>6.7070224857110228E-2</v>
+        <v>155</v>
+      </c>
+      <c r="I41" s="20">
+        <f t="shared" si="20"/>
+        <v>4.6791917759659851E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="53">
+      <c r="B42" s="52">
         <v>305</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="36">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A42)*3</f>
-        <v>286.78278688524586</v>
-      </c>
-      <c r="D42" s="20">
+        <v>299.01098901098896</v>
+      </c>
+      <c r="D42" s="19">
         <f>1-B42/C42</f>
-        <v>-6.3522686673812334E-2</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="57" t="str">
+        <v>-2.0029400955531296E-2</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="56" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_flights</v>
       </c>
-      <c r="G42" s="34">
-        <f t="shared" si="18"/>
-        <v>95.594262295081947</v>
-      </c>
-      <c r="H42" s="23">
+      <c r="G42" s="33">
+        <f t="shared" si="22"/>
+        <v>99.67032967032965</v>
+      </c>
+      <c r="H42" s="22">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
-        <v>102</v>
-      </c>
-      <c r="I42" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="I42" s="20">
+        <f t="shared" si="20"/>
+        <v>6.8501591866078071E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="53">
+      <c r="B43" s="52">
         <v>282</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="36">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A43)*3</f>
-        <v>286.78278688524586</v>
-      </c>
-      <c r="D43" s="20">
-        <f t="shared" ref="D43:D52" si="19">1-B43/C43</f>
-        <v>1.667738478027847E-2</v>
-      </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="57" t="str">
+        <v>269.01098901098896</v>
+      </c>
+      <c r="D43" s="19">
+        <f t="shared" ref="D43:D52" si="23">1-B43/C43</f>
+        <v>-4.8284313725490469E-2</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="56" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>input_data_to_find_tickets</v>
       </c>
-      <c r="G43" s="34">
-        <f t="shared" si="18"/>
-        <v>95.594262295081947</v>
-      </c>
-      <c r="H43" s="23">
+      <c r="G43" s="33">
+        <f t="shared" si="22"/>
+        <v>89.67032967032965</v>
+      </c>
+      <c r="H43" s="22">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
-        <v>98</v>
-      </c>
-      <c r="I43" s="21">
-        <f t="shared" si="16"/>
-        <v>2.4548343927735194E-2</v>
+        <v>91</v>
+      </c>
+      <c r="I43" s="20">
+        <f t="shared" si="20"/>
+        <v>1.4611761864509298E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="53">
+      <c r="B44" s="52">
         <v>270</v>
       </c>
-      <c r="C44" s="37">
-        <f t="shared" si="17"/>
-        <v>286.78278688524586</v>
-      </c>
-      <c r="D44" s="20">
-        <f t="shared" si="19"/>
-        <v>5.8520900321543223E-2</v>
-      </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="57" t="str">
+      <c r="C44" s="36">
+        <f t="shared" si="21"/>
+        <v>269.01098901098896</v>
+      </c>
+      <c r="D44" s="19">
+        <f t="shared" si="23"/>
+        <v>-3.6764705882355031E-3</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="56" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>choose_ticket</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="33">
         <f>C44/3</f>
-        <v>95.594262295081947</v>
-      </c>
-      <c r="H44" s="23">
+        <v>89.67032967032965</v>
+      </c>
+      <c r="H44" s="22">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
-        <v>98</v>
-      </c>
-      <c r="I44" s="21">
-        <f t="shared" si="16"/>
-        <v>2.4548343927735194E-2</v>
+        <v>91</v>
+      </c>
+      <c r="I44" s="20">
+        <f t="shared" si="20"/>
+        <v>1.4611761864509298E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="53">
+      <c r="B45" s="52">
         <v>175</v>
       </c>
-      <c r="C45" s="37">
-        <f t="shared" si="17"/>
-        <v>168.75</v>
-      </c>
-      <c r="D45" s="20">
-        <f t="shared" si="19"/>
-        <v>-3.7037037037036979E-2</v>
-      </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="57" t="str">
+      <c r="C45" s="36">
+        <f t="shared" si="21"/>
+        <v>166.15384615384616</v>
+      </c>
+      <c r="D45" s="19">
+        <f t="shared" si="23"/>
+        <v>-5.32407407407407E-2</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="56" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>payment</v>
       </c>
-      <c r="G45" s="34">
-        <f t="shared" si="18"/>
-        <v>56.25</v>
-      </c>
-      <c r="H45" s="23">
+      <c r="G45" s="33">
+        <f t="shared" si="22"/>
+        <v>55.384615384615387</v>
+      </c>
+      <c r="H45" s="22">
         <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="I45" s="21">
-        <f t="shared" si="16"/>
-        <v>6.25E-2</v>
+        <v>57</v>
+      </c>
+      <c r="I45" s="20">
+        <f t="shared" si="20"/>
+        <v>2.8340080971659853E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="53">
+      <c r="B46" s="52">
         <v>280</v>
       </c>
-      <c r="C46" s="37">
-        <f t="shared" si="17"/>
-        <v>295.55485498108447</v>
-      </c>
-      <c r="D46" s="20">
-        <f t="shared" si="19"/>
-        <v>5.2629333333333306E-2</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="57" t="str">
+      <c r="C46" s="36">
+        <f t="shared" si="21"/>
+        <v>266.53846153846155</v>
+      </c>
+      <c r="D46" s="19">
+        <f t="shared" si="23"/>
+        <v>-5.0505050505050386E-2</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="56" t="str">
         <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_my_tickets</v>
       </c>
-      <c r="G46" s="34">
-        <f t="shared" si="18"/>
-        <v>98.51828499369482</v>
-      </c>
-      <c r="H46" s="23">
+      <c r="G46" s="33">
+        <f t="shared" si="22"/>
+        <v>88.846153846153854</v>
+      </c>
+      <c r="H46" s="22">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
-        <v>123</v>
-      </c>
-      <c r="I46" s="21">
-        <f t="shared" si="16"/>
-        <v>0.19903833338459498</v>
+        <v>89</v>
+      </c>
+      <c r="I46" s="20">
+        <f t="shared" si="20"/>
+        <v>1.7286084701814142E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="53">
+      <c r="B47" s="52">
         <v>73</v>
       </c>
-      <c r="C47" s="37">
-        <f t="shared" si="17"/>
+      <c r="C47" s="36">
+        <f t="shared" si="21"/>
         <v>69.230769230769226</v>
       </c>
-      <c r="D47" s="20">
-        <f t="shared" si="19"/>
+      <c r="D47" s="19">
+        <f t="shared" si="23"/>
         <v>-5.4444444444444517E-2</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="57" t="str">
+      <c r="E47" s="31"/>
+      <c r="F47" s="56" t="str">
         <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
         <v>removing_ticket</v>
       </c>
-      <c r="G47" s="34">
-        <f t="shared" si="18"/>
+      <c r="G47" s="33">
+        <f t="shared" si="22"/>
         <v>23.076923076923077</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="22">
         <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="I47" s="21">
-        <f t="shared" si="16"/>
+      <c r="I47" s="20">
+        <f t="shared" si="20"/>
         <v>-4.8951048951048959E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="53">
+      <c r="B48" s="52">
         <v>326</v>
       </c>
-      <c r="C48" s="37">
-        <f t="shared" si="17"/>
-        <v>312.98076923076917</v>
-      </c>
-      <c r="D48" s="20">
-        <f t="shared" si="19"/>
-        <v>-4.1597542242703733E-2</v>
-      </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="57" t="str">
+      <c r="C48" s="36">
+        <f t="shared" si="21"/>
+        <v>310.38461538461536</v>
+      </c>
+      <c r="D48" s="19">
+        <f t="shared" si="23"/>
+        <v>-5.0309789343246702E-2</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="56" t="str">
         <f>VLOOKUP(A48,Соответствие!A:B,2,FALSE)</f>
         <v>logout</v>
       </c>
-      <c r="G48" s="34">
-        <f t="shared" si="18"/>
-        <v>104.32692307692305</v>
-      </c>
-      <c r="H48" s="23">
+      <c r="G48" s="33">
+        <f t="shared" si="22"/>
+        <v>103.46153846153845</v>
+      </c>
+      <c r="H48" s="22">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
-        <v>109</v>
-      </c>
-      <c r="I48" s="21">
-        <f t="shared" si="16"/>
-        <v>4.2872265349329752E-2</v>
+        <v>104</v>
+      </c>
+      <c r="I48" s="20">
+        <f t="shared" si="20"/>
+        <v>5.177514792899518E-3</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="53">
+      <c r="B49" s="52">
         <v>97</v>
       </c>
-      <c r="C49" s="37">
-        <f t="shared" si="17"/>
+      <c r="C49" s="36">
+        <f t="shared" si="21"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="D49" s="20">
-        <f t="shared" si="19"/>
+      <c r="D49" s="19">
+        <f t="shared" si="23"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="57" t="str">
+      <c r="E49" s="31"/>
+      <c r="F49" s="56" t="str">
         <f>VLOOKUP(A49,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_registrating_menu</v>
       </c>
-      <c r="G49" s="34">
-        <f t="shared" si="18"/>
+      <c r="G49" s="33">
+        <f t="shared" si="22"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="22">
         <f>VLOOKUP(F49,SummaryReport!A:J,8,FALSE)</f>
-        <v>33</v>
-      </c>
-      <c r="I49" s="21">
-        <f t="shared" si="16"/>
-        <v>6.759906759906753E-2</v>
+        <v>31</v>
+      </c>
+      <c r="I49" s="20">
+        <f t="shared" si="20"/>
+        <v>7.4441687344912744E-3</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="53">
+      <c r="B50" s="52">
         <v>97</v>
       </c>
-      <c r="C50" s="37">
-        <f t="shared" si="17"/>
+      <c r="C50" s="36">
+        <f t="shared" si="21"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="D50" s="20">
-        <f t="shared" si="19"/>
+      <c r="D50" s="19">
+        <f t="shared" si="23"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="57" t="str">
+      <c r="E50" s="31"/>
+      <c r="F50" s="56" t="str">
         <f>VLOOKUP(A50,Соответствие!A:B,2,FALSE)</f>
         <v>registrating</v>
       </c>
-      <c r="G50" s="34">
-        <f t="shared" si="18"/>
+      <c r="G50" s="33">
+        <f t="shared" si="22"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="22">
         <f>VLOOKUP(F50,SummaryReport!A:J,8,FALSE)</f>
-        <v>33</v>
-      </c>
-      <c r="I50" s="21">
-        <f t="shared" si="16"/>
-        <v>6.759906759906753E-2</v>
+        <v>31</v>
+      </c>
+      <c r="I50" s="20">
+        <f t="shared" si="20"/>
+        <v>7.4441687344912744E-3</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="53">
+      <c r="B51" s="52">
         <v>97</v>
       </c>
-      <c r="C51" s="37">
-        <f t="shared" si="17"/>
+      <c r="C51" s="36">
+        <f t="shared" si="21"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="D51" s="20">
-        <f t="shared" si="19"/>
+      <c r="D51" s="19">
+        <f t="shared" si="23"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="57" t="str">
+      <c r="E51" s="31"/>
+      <c r="F51" s="56" t="str">
         <f>VLOOKUP(A51,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_menu</v>
       </c>
-      <c r="G51" s="34">
-        <f t="shared" si="18"/>
+      <c r="G51" s="33">
+        <f t="shared" si="22"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="22">
         <f>VLOOKUP(F51,SummaryReport!A:J,8,FALSE)</f>
-        <v>33</v>
-      </c>
-      <c r="I51" s="21">
-        <f t="shared" si="16"/>
-        <v>6.759906759906753E-2</v>
+        <v>31</v>
+      </c>
+      <c r="I51" s="20">
+        <f t="shared" si="20"/>
+        <v>7.4441687344912744E-3</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="54">
+      <c r="B52" s="53">
         <f>SUM(B40:B51)</f>
         <v>2944</v>
       </c>
-      <c r="C52" s="55">
+      <c r="C52" s="54">
         <f>SUM(C40:C51)</f>
-        <v>2938.1226355611602</v>
-      </c>
-      <c r="D52" s="20">
-        <f t="shared" si="19"/>
-        <v>-2.0003809125268557E-3</v>
+        <v>2905.0549450549443</v>
+      </c>
+      <c r="D52" s="19">
+        <f t="shared" si="23"/>
+        <v>-1.3405961567559688E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I53" s="24"/>
+      <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="41" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="31"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4561,135 +5735,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="str">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="str">
         <f>'Автоматизированный расчет'!A40</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="98" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="str">
+      <c r="A3" s="56" t="str">
         <f>'Автоматизированный расчет'!A41</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="98" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="str">
+      <c r="A4" s="56" t="str">
         <f>'Автоматизированный расчет'!A42</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="98" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="str">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="str">
         <f>'Автоматизированный расчет'!A43</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="98" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="str">
+      <c r="A6" s="56" t="str">
         <f>'Автоматизированный расчет'!A44</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="98" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="56" t="str">
         <f>'Автоматизированный расчет'!A45</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="98" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="str">
+      <c r="A8" s="56" t="str">
         <f>'Автоматизированный расчет'!A46</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="98" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="str">
+      <c r="A9" s="56" t="str">
         <f>'Автоматизированный расчет'!A47</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="98" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="str">
+      <c r="A10" s="56" t="str">
         <f>'Автоматизированный расчет'!A48</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="98" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="str">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="str">
         <f>'Автоматизированный расчет'!A49</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="98" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="str">
+      <c r="A12" s="56" t="str">
         <f>'Автоматизированный расчет'!A50</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="98" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="str">
+      <c r="A13" s="56" t="str">
         <f>'Автоматизированный расчет'!A51</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="98" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" xr:uid="{446C9947-1BF5-4094-84FB-399E5BFD0C61}"/>
-    <hyperlink ref="B3" xr:uid="{B25533FD-DA0D-4AA2-9408-18398C47807E}"/>
-    <hyperlink ref="B4" xr:uid="{1CB98A68-0694-4B86-B2F8-46051BFE3D99}"/>
-    <hyperlink ref="B5" xr:uid="{57AEED72-A190-45B8-BE5F-8920D8DB92F5}"/>
-    <hyperlink ref="B6" xr:uid="{B9FAE8DA-4BEF-410B-B215-E4D8449144D4}"/>
-    <hyperlink ref="B7" xr:uid="{6A2AB4E4-BA8D-45A9-A095-3A2AF440C317}"/>
-    <hyperlink ref="B8" xr:uid="{F1938F99-25FD-4E7C-98B7-9723C340B61F}"/>
-    <hyperlink ref="B9" xr:uid="{6D218E6C-798E-4648-A0B3-97F3AEF696DD}"/>
-    <hyperlink ref="B10" xr:uid="{86F13578-23EA-4E8C-AC54-C009B45298C6}"/>
-    <hyperlink ref="B11" xr:uid="{48D4699C-383A-443D-BB8F-EE24CF6802B1}"/>
-    <hyperlink ref="B12" xr:uid="{0F31A3A6-C8A2-4289-9A42-994986FC2A0F}"/>
-    <hyperlink ref="B13" xr:uid="{9B8427A1-5A6E-411A-AD23-F2C8D64827BD}"/>
+    <hyperlink ref="B2" display="go_to_welcome_page" xr:uid="{446C9947-1BF5-4094-84FB-399E5BFD0C61}"/>
+    <hyperlink ref="B3" display="login" xr:uid="{B25533FD-DA0D-4AA2-9408-18398C47807E}"/>
+    <hyperlink ref="B4" display="go_to_flights" xr:uid="{1CB98A68-0694-4B86-B2F8-46051BFE3D99}"/>
+    <hyperlink ref="B5" display="input_data_to_find_tickets" xr:uid="{57AEED72-A190-45B8-BE5F-8920D8DB92F5}"/>
+    <hyperlink ref="B6" display="choose_ticket" xr:uid="{B9FAE8DA-4BEF-410B-B215-E4D8449144D4}"/>
+    <hyperlink ref="B7" display="payment" xr:uid="{6A2AB4E4-BA8D-45A9-A095-3A2AF440C317}"/>
+    <hyperlink ref="B8" display="go_to_my_tickets" xr:uid="{F1938F99-25FD-4E7C-98B7-9723C340B61F}"/>
+    <hyperlink ref="B9" display="removing_ticket" xr:uid="{6D218E6C-798E-4648-A0B3-97F3AEF696DD}"/>
+    <hyperlink ref="B10" display="logout" xr:uid="{86F13578-23EA-4E8C-AC54-C009B45298C6}"/>
+    <hyperlink ref="B11" display="go_to_registrating_menu" xr:uid="{48D4699C-383A-443D-BB8F-EE24CF6802B1}"/>
+    <hyperlink ref="B12" display="registrating" xr:uid="{0F31A3A6-C8A2-4289-9A42-994986FC2A0F}"/>
+    <hyperlink ref="B13" display="go_to_menu" xr:uid="{9B8427A1-5A6E-411A-AD23-F2C8D64827BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4697,10 +5871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4708,702 +5882,706 @@
     <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="108" t="s">
+      <c r="J1" s="97" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="116">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="D2" s="116">
+        <v>3.1579999999999999</v>
+      </c>
+      <c r="E2" s="116">
+        <v>5.61</v>
+      </c>
+      <c r="F2" s="116">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="G2" s="116">
+        <v>4.3040000000000003</v>
+      </c>
+      <c r="H2" s="116">
+        <v>179</v>
+      </c>
+      <c r="I2" s="116">
+        <v>7</v>
+      </c>
+      <c r="J2" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="110">
-        <v>1.962</v>
-      </c>
-      <c r="D2" s="110">
-        <v>2.786</v>
-      </c>
-      <c r="E2" s="110">
-        <v>4.9939999999999998</v>
-      </c>
-      <c r="F2" s="110">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="G2" s="110">
-        <v>3.3319999999999999</v>
-      </c>
-      <c r="H2" s="110">
-        <v>180</v>
-      </c>
-      <c r="I2" s="110">
-        <v>7</v>
-      </c>
-      <c r="J2" s="110">
+      <c r="C3" s="116">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D3" s="116">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E3" s="116">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F3" s="116">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G3" s="116">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="H3" s="116">
+        <v>91</v>
+      </c>
+      <c r="I3" s="116">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="110" t="s">
+      <c r="J3" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="116">
+        <v>0.46</v>
+      </c>
+      <c r="D4" s="116">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E4" s="116">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="F4" s="116">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G4" s="116">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H4" s="116">
+        <v>107</v>
+      </c>
+      <c r="I4" s="116">
+        <v>0</v>
+      </c>
+      <c r="J4" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="116">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D5" s="116">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E5" s="116">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="F5" s="116">
+        <v>0.11</v>
+      </c>
+      <c r="G5" s="116">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H5" s="116">
+        <v>31</v>
+      </c>
+      <c r="I5" s="116">
+        <v>0</v>
+      </c>
+      <c r="J5" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="116">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D6" s="116">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="E6" s="116">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="F6" s="116">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G6" s="116">
+        <v>0.98</v>
+      </c>
+      <c r="H6" s="116">
+        <v>89</v>
+      </c>
+      <c r="I6" s="116">
+        <v>0</v>
+      </c>
+      <c r="J6" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="116">
+        <v>0.24</v>
+      </c>
+      <c r="D7" s="116">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E7" s="116">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="F7" s="116">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G7" s="116">
+        <v>0.373</v>
+      </c>
+      <c r="H7" s="116">
+        <v>31</v>
+      </c>
+      <c r="I7" s="116">
+        <v>0</v>
+      </c>
+      <c r="J7" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="116">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D8" s="116">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="E8" s="116">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="F8" s="116">
+        <v>0.182</v>
+      </c>
+      <c r="G8" s="116">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="H8" s="116">
+        <v>187</v>
+      </c>
+      <c r="I8" s="116">
+        <v>0</v>
+      </c>
+      <c r="J8" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="116">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D9" s="116">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E9" s="116">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F9" s="116">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G9" s="116">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H9" s="116">
+        <v>91</v>
+      </c>
+      <c r="I9" s="116">
+        <v>6</v>
+      </c>
+      <c r="J9" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="116">
+        <v>0.496</v>
+      </c>
+      <c r="D10" s="116">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="E10" s="116">
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="F10" s="116">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="G10" s="116">
+        <v>1.375</v>
+      </c>
+      <c r="H10" s="116">
+        <v>155</v>
+      </c>
+      <c r="I10" s="116">
+        <v>0</v>
+      </c>
+      <c r="J10" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="116">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D11" s="116">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E11" s="116">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F11" s="116">
+        <v>0.122</v>
+      </c>
+      <c r="G11" s="116">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="H11" s="116">
+        <v>104</v>
+      </c>
+      <c r="I11" s="116">
+        <v>0</v>
+      </c>
+      <c r="J11" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="116">
+        <v>0.252</v>
+      </c>
+      <c r="D12" s="116">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E12" s="116">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="F12" s="116">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G12" s="116">
+        <v>0.504</v>
+      </c>
+      <c r="H12" s="116">
+        <v>57</v>
+      </c>
+      <c r="I12" s="116">
+        <v>0</v>
+      </c>
+      <c r="J12" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="116">
+        <v>0.245</v>
+      </c>
+      <c r="D13" s="116">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E13" s="116">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F13" s="116">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13" s="116">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H13" s="116">
+        <v>31</v>
+      </c>
+      <c r="I13" s="116">
+        <v>0</v>
+      </c>
+      <c r="J13" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="116">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D14" s="116">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="E14" s="116">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F14" s="116">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G14" s="116">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="H14" s="116">
+        <v>22</v>
+      </c>
+      <c r="I14" s="116">
+        <v>1</v>
+      </c>
+      <c r="J14" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="116">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="D15" s="116">
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="E15" s="116">
+        <v>3.45</v>
+      </c>
+      <c r="F15" s="116">
+        <v>0.312</v>
+      </c>
+      <c r="G15" s="116">
+        <v>2.617</v>
+      </c>
+      <c r="H15" s="116">
+        <v>31</v>
+      </c>
+      <c r="I15" s="116">
+        <v>0</v>
+      </c>
+      <c r="J15" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="116">
+        <v>1.994</v>
+      </c>
+      <c r="D16" s="116">
+        <v>2.552</v>
+      </c>
+      <c r="E16" s="116">
+        <v>3.798</v>
+      </c>
+      <c r="F16" s="116">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G16" s="116">
+        <v>3.3660000000000001</v>
+      </c>
+      <c r="H16" s="116">
+        <v>25</v>
+      </c>
+      <c r="I16" s="116">
+        <v>0</v>
+      </c>
+      <c r="J16" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="116">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="D17" s="116">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="E17" s="116">
+        <v>4.5129999999999999</v>
+      </c>
+      <c r="F17" s="116">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="G17" s="116">
+        <v>3.222</v>
+      </c>
+      <c r="H17" s="116">
+        <v>22</v>
+      </c>
+      <c r="I17" s="116">
+        <v>1</v>
+      </c>
+      <c r="J17" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="116">
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="D18" s="116">
+        <v>3.0390000000000001</v>
+      </c>
+      <c r="E18" s="116">
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="F18" s="116">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G18" s="116">
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="H18" s="116">
+        <v>34</v>
+      </c>
+      <c r="I18" s="116">
+        <v>6</v>
+      </c>
+      <c r="J18" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="116">
+        <v>3.012</v>
+      </c>
+      <c r="D19" s="116">
+        <v>4.1189999999999998</v>
+      </c>
+      <c r="E19" s="116">
+        <v>5.61</v>
+      </c>
+      <c r="F19" s="116">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="G19" s="116">
+        <v>4.8689999999999998</v>
+      </c>
+      <c r="H19" s="116">
+        <v>57</v>
+      </c>
+      <c r="I19" s="116">
+        <v>0</v>
+      </c>
+      <c r="J19" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="110">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="D3" s="110">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E3" s="110">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="F3" s="110">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="G3" s="110">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="H3" s="110">
-        <v>98</v>
-      </c>
-      <c r="I3" s="110">
+      <c r="B20" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="116">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D20" s="116">
+        <v>2.778</v>
+      </c>
+      <c r="E20" s="116">
+        <v>4.8390000000000004</v>
+      </c>
+      <c r="F20" s="116">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="G20" s="116">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="H20" s="116">
+        <v>10</v>
+      </c>
+      <c r="I20" s="116">
         <v>0</v>
       </c>
-      <c r="J3" s="110">
+      <c r="J20" s="116">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="110">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D4" s="110">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="E4" s="110">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="F4" s="110">
-        <v>0.107</v>
-      </c>
-      <c r="G4" s="110">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="H4" s="110">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="110">
+      <c r="C21" s="116">
+        <v>1E-3</v>
+      </c>
+      <c r="D21" s="116">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E21" s="116">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F21" s="116">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G21" s="116">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H21" s="116">
+        <v>9</v>
+      </c>
+      <c r="I21" s="116">
         <v>0</v>
       </c>
-      <c r="J4" s="110">
+      <c r="J21" s="116">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="110">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="D5" s="110">
-        <v>0.53</v>
-      </c>
-      <c r="E5" s="110">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="F5" s="110">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G5" s="110">
-        <v>0.626</v>
-      </c>
-      <c r="H5" s="110">
-        <v>33</v>
-      </c>
-      <c r="I5" s="110">
-        <v>0</v>
-      </c>
-      <c r="J5" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="110">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="D6" s="110">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="E6" s="110">
-        <v>2.355</v>
-      </c>
-      <c r="F6" s="110">
-        <v>0.223</v>
-      </c>
-      <c r="G6" s="110">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="H6" s="110">
-        <v>123</v>
-      </c>
-      <c r="I6" s="110">
-        <v>0</v>
-      </c>
-      <c r="J6" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="109" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="110">
-        <v>0.24</v>
-      </c>
-      <c r="D7" s="110">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E7" s="110">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="F7" s="110">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="G7" s="110">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="H7" s="110">
-        <v>33</v>
-      </c>
-      <c r="I7" s="110">
-        <v>0</v>
-      </c>
-      <c r="J7" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="110">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="D8" s="110">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="E8" s="110">
-        <v>1.421</v>
-      </c>
-      <c r="F8" s="110">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="G8" s="110">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="H8" s="110">
-        <v>187</v>
-      </c>
-      <c r="I8" s="110">
-        <v>0</v>
-      </c>
-      <c r="J8" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="110">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D9" s="110">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="E9" s="110">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="F9" s="110">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="G9" s="110">
-        <v>0.307</v>
-      </c>
-      <c r="H9" s="110">
-        <v>98</v>
-      </c>
-      <c r="I9" s="110">
-        <v>4</v>
-      </c>
-      <c r="J9" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="110">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="D10" s="110">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="E10" s="110">
-        <v>1.163</v>
-      </c>
-      <c r="F10" s="110">
-        <v>0.115</v>
-      </c>
-      <c r="G10" s="110">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="H10" s="110">
-        <v>154</v>
-      </c>
-      <c r="I10" s="110">
-        <v>0</v>
-      </c>
-      <c r="J10" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="110">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="D11" s="110">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="E11" s="110">
-        <v>1.46</v>
-      </c>
-      <c r="F11" s="110">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="G11" s="110">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="H11" s="110">
-        <v>109</v>
-      </c>
-      <c r="I11" s="110">
-        <v>0</v>
-      </c>
-      <c r="J11" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="110">
-        <v>0.249</v>
-      </c>
-      <c r="D12" s="110">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="E12" s="110">
-        <v>0.499</v>
-      </c>
-      <c r="F12" s="110">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G12" s="110">
-        <v>0.317</v>
-      </c>
-      <c r="H12" s="110">
-        <v>60</v>
-      </c>
-      <c r="I12" s="110">
-        <v>0</v>
-      </c>
-      <c r="J12" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="110">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="D13" s="110">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="E13" s="110">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="F13" s="110">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G13" s="110">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="H13" s="110">
-        <v>33</v>
-      </c>
-      <c r="I13" s="110">
-        <v>0</v>
-      </c>
-      <c r="J13" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="110">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="D14" s="110">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="E14" s="110">
-        <v>0.68</v>
-      </c>
-      <c r="F14" s="110">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="G14" s="110">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="H14" s="110">
-        <v>22</v>
-      </c>
-      <c r="I14" s="110">
-        <v>3</v>
-      </c>
-      <c r="J14" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="110">
-        <v>1.962</v>
-      </c>
-      <c r="D15" s="110">
-        <v>2.2879999999999998</v>
-      </c>
-      <c r="E15" s="110">
-        <v>3.3340000000000001</v>
-      </c>
-      <c r="F15" s="110">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G15" s="110">
-        <v>2.6160000000000001</v>
-      </c>
-      <c r="H15" s="110">
-        <v>33</v>
-      </c>
-      <c r="I15" s="110">
-        <v>0</v>
-      </c>
-      <c r="J15" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="110">
-        <v>2.0110000000000001</v>
-      </c>
-      <c r="D16" s="110">
-        <v>2.234</v>
-      </c>
-      <c r="E16" s="110">
-        <v>2.9449999999999998</v>
-      </c>
-      <c r="F16" s="110">
-        <v>0.187</v>
-      </c>
-      <c r="G16" s="110">
-        <v>2.42</v>
-      </c>
-      <c r="H16" s="110">
-        <v>27</v>
-      </c>
-      <c r="I16" s="110">
-        <v>0</v>
-      </c>
-      <c r="J16" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="110">
-        <v>2.46</v>
-      </c>
-      <c r="D17" s="110">
-        <v>2.895</v>
-      </c>
-      <c r="E17" s="110">
-        <v>3.3980000000000001</v>
-      </c>
-      <c r="F17" s="110">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="G17" s="110">
-        <v>3.117</v>
-      </c>
-      <c r="H17" s="110">
-        <v>22</v>
-      </c>
-      <c r="I17" s="110">
-        <v>3</v>
-      </c>
-      <c r="J17" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="110">
-        <v>2.508</v>
-      </c>
-      <c r="D18" s="110">
-        <v>2.96</v>
-      </c>
-      <c r="E18" s="110">
-        <v>4.9939999999999998</v>
-      </c>
-      <c r="F18" s="110">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="G18" s="110">
-        <v>3.5569999999999999</v>
-      </c>
-      <c r="H18" s="110">
-        <v>38</v>
-      </c>
-      <c r="I18" s="110">
-        <v>4</v>
-      </c>
-      <c r="J18" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="110">
-        <v>2.7530000000000001</v>
-      </c>
-      <c r="D19" s="110">
-        <v>3.1579999999999999</v>
-      </c>
-      <c r="E19" s="110">
-        <v>4.3710000000000004</v>
-      </c>
-      <c r="F19" s="110">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="G19" s="110">
-        <v>3.4279999999999999</v>
-      </c>
-      <c r="H19" s="110">
-        <v>60</v>
-      </c>
-      <c r="I19" s="110">
-        <v>0</v>
-      </c>
-      <c r="J19" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="109" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="110">
-        <v>0</v>
-      </c>
-      <c r="D20" s="110">
-        <v>0</v>
-      </c>
-      <c r="E20" s="110">
-        <v>0</v>
-      </c>
-      <c r="F20" s="110">
-        <v>0</v>
-      </c>
-      <c r="G20" s="110">
-        <v>0</v>
-      </c>
-      <c r="H20" s="110">
-        <v>8</v>
-      </c>
-      <c r="I20" s="110">
-        <v>0</v>
-      </c>
-      <c r="J20" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="109" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="110">
-        <v>0</v>
-      </c>
-      <c r="D21" s="110">
-        <v>2E-3</v>
-      </c>
-      <c r="E21" s="110">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F21" s="110">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G21" s="110">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H21" s="110">
-        <v>8</v>
-      </c>
-      <c r="I21" s="110">
-        <v>0</v>
-      </c>
-      <c r="J21" s="110">
-        <v>0</v>
-      </c>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="117"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" xr:uid="{449268A9-C860-4725-AC8E-B46B42802D8D}"/>
-    <hyperlink ref="A3" xr:uid="{79842BD1-E825-4F98-B10D-9B5C61A30D3F}"/>
-    <hyperlink ref="A4" xr:uid="{B537BBD3-1FE8-44BE-8672-CF158DBAC3C9}"/>
-    <hyperlink ref="A5" xr:uid="{CCB879DC-9578-4CA1-AC6F-7CE44B694742}"/>
-    <hyperlink ref="A6" xr:uid="{BE68FD30-3CB5-4282-AA56-A12C1AF890B9}"/>
-    <hyperlink ref="A7" xr:uid="{F8D80827-8B5B-4957-B1E0-ECC8FF86A62B}"/>
-    <hyperlink ref="A8" xr:uid="{3F535B8F-7A27-4A5C-824F-733818C9FFB3}"/>
-    <hyperlink ref="A9" xr:uid="{2B3AC626-3F85-435F-A2B0-46AE7455026A}"/>
-    <hyperlink ref="A10" xr:uid="{8E721666-7F82-4B44-8AE4-1FC090D78F20}"/>
-    <hyperlink ref="A11" xr:uid="{C0DE51FE-D38B-4E27-B259-814B9746CC66}"/>
-    <hyperlink ref="A12" xr:uid="{F547B325-D485-4E84-ACF8-55BC5C442AE4}"/>
-    <hyperlink ref="A13" xr:uid="{24C9EB59-46B9-4D08-A801-0BFE9D67A055}"/>
-    <hyperlink ref="A14" xr:uid="{810C3C3E-159C-4B42-8B21-DE2A19CACCE6}"/>
-    <hyperlink ref="A15" xr:uid="{DBDB64A3-F159-4613-8B77-D2237EAB6959}"/>
-    <hyperlink ref="A16" xr:uid="{92CA88B5-F188-484E-A58C-CC6B17064A54}"/>
-    <hyperlink ref="A17" xr:uid="{40DD44AA-CE79-455F-9BE2-729DE0FD6449}"/>
-    <hyperlink ref="A18" xr:uid="{F9A05A5E-68F0-414A-AEF0-397661135158}"/>
-    <hyperlink ref="A19" xr:uid="{B20D476E-C4D9-4903-B1D5-517BD713234C}"/>
-    <hyperlink ref="A20" xr:uid="{A46034A4-177A-4DDC-80EE-C1CA53A7B2CD}"/>
-    <hyperlink ref="A21" xr:uid="{A10D48F4-72D3-449F-A873-A18E734F45E5}"/>
+    <hyperlink ref="A2" xr:uid="{BF5F7FC7-A479-46F9-ACD3-72737B3FF748}"/>
+    <hyperlink ref="A3" xr:uid="{026E7AB1-FCEE-46D0-BF91-CC2D03D25AB9}"/>
+    <hyperlink ref="A4" xr:uid="{805757A6-C5DE-47B8-B14E-E214A0C68BD4}"/>
+    <hyperlink ref="A5" xr:uid="{414C6188-186F-4F07-8055-469348538AA7}"/>
+    <hyperlink ref="A6" xr:uid="{99036039-C5C9-4B4E-9C5A-8F60229B3AC4}"/>
+    <hyperlink ref="A7" xr:uid="{687C548C-0DCA-4E34-B4B8-8757A0196829}"/>
+    <hyperlink ref="A8" xr:uid="{8CAD1642-7A0E-41E4-9EBE-69B43ED36167}"/>
+    <hyperlink ref="A9" xr:uid="{176531E2-33A6-4C27-A2AC-1C4D1F1ACE83}"/>
+    <hyperlink ref="A10" xr:uid="{F30AE43E-4C33-4C32-B4FB-90082A4B6D48}"/>
+    <hyperlink ref="A11" xr:uid="{82D3AC57-A4D0-4183-8B2F-7B9266C6BA5A}"/>
+    <hyperlink ref="A12" xr:uid="{DA1D90D3-E61F-4BD1-BFA6-97D02AA8E6EA}"/>
+    <hyperlink ref="A13" xr:uid="{661BE65C-37B6-4FB5-981A-8A839105C98A}"/>
+    <hyperlink ref="A14" xr:uid="{311B304F-83D2-421E-B6FF-B3171FC96273}"/>
+    <hyperlink ref="A15" xr:uid="{FA4323CF-AABF-4744-BB67-8C21A9D9B79F}"/>
+    <hyperlink ref="A16" xr:uid="{3BDFC910-CC72-4647-A259-D2E68D9133E1}"/>
+    <hyperlink ref="A17" xr:uid="{44624376-BC5B-437A-8B82-9A2C70E3E329}"/>
+    <hyperlink ref="A18" xr:uid="{DD872862-541F-4476-9D6A-23C85F4160C5}"/>
+    <hyperlink ref="A19" xr:uid="{99B2DA88-2ADD-4D39-97BA-B622982E1FAD}"/>
+    <hyperlink ref="A20" xr:uid="{E71F4B8B-9DEF-4255-A071-65121D44E2E2}"/>
+    <hyperlink ref="A21" xr:uid="{AC94B147-5636-4A18-8F92-BB5D2739E571}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5434,13 +6612,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
     </row>
     <row r="11" spans="5:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
@@ -5593,13 +6771,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="107" t="s">
+      <c r="E23" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" s="8" t="s">
@@ -5759,13 +6937,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E35" s="107" t="s">
+      <c r="E35" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E37" s="8" t="s">

--- a/Документы/Профиль_нагрузки.xlsx
+++ b/Документы/Профиль_нагрузки.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LoadRunner\LRProjects\Скрипты\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ed230\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCECDFD-4457-4AC5-84CF-2C88DAFE7EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B3CB15-B7C2-4DE4-ABF6-ED8783DBEEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="108" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="102">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -471,9 +471,6 @@
     <t>Duration + Think_time</t>
   </si>
   <si>
-    <t>Action_Transaction</t>
-  </si>
-  <si>
     <t>Профиль</t>
   </si>
   <si>
@@ -523,9 +520,6 @@
   </si>
   <si>
     <t>UC5_BuyTicket</t>
-  </si>
-  <si>
-    <t>vuser_init_Transaction</t>
   </si>
   <si>
     <t>FALSE</t>
@@ -1099,7 +1093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1501,15 +1495,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDEE2E6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1594,7 +1579,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1742,9 +1727,19 @@
     <xf numFmtId="2" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="66" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="46" borderId="2" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1761,25 +1756,12 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="33" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="66" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="33" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="81">
@@ -1865,216 +1847,27 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2087,971 +1880,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3077" name="AutoShape 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7FA54C-6071-3675-BB21-7EA8E61ADB4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="952500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3078" name="AutoShape 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD9021F-AB03-BDC7-D3C8-0DE69D4EC523}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1143000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3079" name="AutoShape 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7759D7D-27A6-C2A4-3597-36BB1D976DDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1333500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3080" name="AutoShape 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6E6BFD-9A25-653A-0135-7C398146FCEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1524000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3081" name="AutoShape 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A03088-9EFB-B148-07A2-81EBDD576C2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1714500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3082" name="AutoShape 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FC3DBB-5F73-C168-F2B3-D0625A3F1D9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1905000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3083" name="AutoShape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D9C5B0-2BE7-C39A-75FC-9215133DACFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="2095500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3084" name="AutoShape 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C520393C-6AEA-3641-9BA6-7B5A110620CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="2286000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3093" name="AutoShape 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC5F597-EAB9-27EB-B7EC-DB069D795E5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="3992880"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3099" name="AutoShape 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CA98EB-0BBE-63E3-9D97-83F52AADE5CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1143000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3100" name="AutoShape 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF17A18-C04F-7AE0-B5BF-3E8D707D59F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1333500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3101" name="AutoShape 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71B87FB-882C-84E3-0F9E-2D1F98489BA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1524000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3102" name="AutoShape 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE38975-3ED0-AADD-E420-DD3F6B9D740F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1714500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3103" name="AutoShape 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433EB5B6-E7A4-A38C-9CE4-03C5D8A4269F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1905000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3104" name="AutoShape 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC7FC2F-0B95-CE53-5D9D-51DB3B96F0C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="2095500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3105" name="AutoShape 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34801691-ECD9-E909-C65E-5B8EFA492BA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="2286000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3120" name="AutoShape 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC336DE-121C-85D2-44DD-6AE86B20188F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1333500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3121" name="AutoShape 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA4ADC2-2B80-A37F-3C60-7D738A41E6C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1524000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3123" name="AutoShape 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6CEF4F-655F-1E4B-426D-0942264286DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="1905000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3124" name="AutoShape 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C0DB69-A25F-CE8B-A658-96EA3588515F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2499360" y="2095500"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3443,7 +2271,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3523,25 +2351,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="28">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3822,7 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -3902,7 +2730,7 @@
         <v>49</v>
       </c>
       <c r="T1" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U1" s="47" t="s">
         <v>47</v>
@@ -4313,16 +3141,16 @@
       <c r="J7" s="17">
         <v>23.076923076923073</v>
       </c>
-      <c r="M7" s="110" t="s">
+      <c r="M7" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="113">
+      <c r="N7" s="104">
         <v>4</v>
       </c>
-      <c r="O7" s="114">
+      <c r="O7" s="105">
         <v>15</v>
       </c>
-      <c r="P7" s="111">
+      <c r="P7" s="36">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -4332,7 +3160,7 @@
       <c r="R7" s="44">
         <v>1</v>
       </c>
-      <c r="S7" s="112">
+      <c r="S7" s="45">
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
@@ -4359,23 +3187,23 @@
       <c r="C8" s="22">
         <v>1</v>
       </c>
-      <c r="D8" s="108">
+      <c r="D8" s="102">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="99">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F8" s="106">
+      <c r="F8" s="100">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="101">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H8" s="105">
+      <c r="H8" s="99">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
@@ -4410,23 +3238,23 @@
       <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="98">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="99">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F9" s="106">
+      <c r="F9" s="100">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="101">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H9" s="105">
+      <c r="H9" s="99">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
@@ -4447,23 +3275,23 @@
       <c r="C10" s="22">
         <v>1</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="98">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E10" s="99">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F10" s="106">
+      <c r="F10" s="100">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="101">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H10" s="105">
+      <c r="H10" s="99">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
@@ -4484,23 +3312,23 @@
       <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="98">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="99">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F11" s="106">
+      <c r="F11" s="100">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G11" s="107">
+      <c r="G11" s="101">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H11" s="105">
+      <c r="H11" s="99">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
@@ -4521,23 +3349,23 @@
       <c r="C12" s="22">
         <v>1</v>
       </c>
-      <c r="D12" s="109">
+      <c r="D12" s="103">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="99">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F12" s="106">
+      <c r="F12" s="100">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="101">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H12" s="105">
+      <c r="H12" s="99">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
@@ -5244,14 +4072,14 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="100"/>
-      <c r="C38" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="102"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="110"/>
     </row>
     <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
@@ -5306,11 +4134,11 @@
       </c>
       <c r="H40" s="22">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I40" s="20">
         <f t="shared" ref="I40:I51" si="20">1-G40/H40</f>
-        <v>4.5366398307574829E-2</v>
+        <v>4.0233959588798385E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.3">
@@ -5372,11 +4200,11 @@
       </c>
       <c r="H42" s="22">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I42" s="20">
         <f t="shared" si="20"/>
-        <v>6.8501591866078071E-2</v>
+        <v>2.2839905192846621E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.3">
@@ -5405,11 +4233,11 @@
       </c>
       <c r="H43" s="22">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I43" s="20">
         <f t="shared" si="20"/>
-        <v>1.4611761864509298E-2</v>
+        <v>-1.8981018981018671E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.3">
@@ -5438,11 +4266,11 @@
       </c>
       <c r="H44" s="22">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I44" s="20">
         <f t="shared" si="20"/>
-        <v>1.4611761864509298E-2</v>
+        <v>-1.8981018981018671E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.3">
@@ -5504,11 +4332,11 @@
       </c>
       <c r="H46" s="22">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I46" s="20">
         <f t="shared" si="20"/>
-        <v>1.7286084701814142E-3</v>
+        <v>-9.6153846153848033E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.3">
@@ -5537,11 +4365,11 @@
       </c>
       <c r="H47" s="22">
         <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I47" s="20">
         <f t="shared" si="20"/>
-        <v>-4.8951048951048959E-2</v>
+        <v>-3.3444816053511683E-3</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.3">
@@ -5570,11 +4398,11 @@
       </c>
       <c r="H48" s="22">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I48" s="20">
         <f t="shared" si="20"/>
-        <v>5.177514792899518E-3</v>
+        <v>1.4652014652014711E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="36" x14ac:dyDescent="0.3">
@@ -5747,8 +4575,8 @@
         <f>'Автоматизированный расчет'!A40</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="98" t="s">
-        <v>90</v>
+      <c r="B2" s="97" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5756,7 +4584,7 @@
         <f>'Автоматизированный расчет'!A41</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="97" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5765,8 +4593,8 @@
         <f>'Автоматизированный расчет'!A42</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="98" t="s">
-        <v>86</v>
+      <c r="B4" s="97" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5774,8 +4602,8 @@
         <f>'Автоматизированный расчет'!A43</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="98" t="s">
-        <v>91</v>
+      <c r="B5" s="97" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5783,8 +4611,8 @@
         <f>'Автоматизированный расчет'!A44</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="98" t="s">
-        <v>85</v>
+      <c r="B6" s="97" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5792,8 +4620,8 @@
         <f>'Автоматизированный расчет'!A45</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="98" t="s">
-        <v>92</v>
+      <c r="B7" s="97" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5801,8 +4629,8 @@
         <f>'Автоматизированный расчет'!A46</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="98" t="s">
-        <v>88</v>
+      <c r="B8" s="97" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5810,8 +4638,8 @@
         <f>'Автоматизированный расчет'!A47</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="98" t="s">
-        <v>94</v>
+      <c r="B9" s="97" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5819,7 +4647,7 @@
         <f>'Автоматизированный расчет'!A48</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5828,8 +4656,8 @@
         <f>'Автоматизированный расчет'!A49</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="98" t="s">
-        <v>89</v>
+      <c r="B11" s="97" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5837,8 +4665,8 @@
         <f>'Автоматизированный расчет'!A50</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="98" t="s">
-        <v>93</v>
+      <c r="B12" s="97" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5846,8 +4674,8 @@
         <f>'Автоматизированный расчет'!A51</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="98" t="s">
-        <v>87</v>
+      <c r="B13" s="97" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5873,8 +4701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5882,706 +4710,645 @@
     <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="112" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="115" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="116" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="114">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D2" s="114">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E2" s="114">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F2" s="114">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G2" s="114">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="H2" s="114">
+        <v>88</v>
+      </c>
+      <c r="I2" s="114">
+        <v>0</v>
+      </c>
+      <c r="J2" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="114">
+        <v>0.46</v>
+      </c>
+      <c r="D3" s="114">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E3" s="114">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="F3" s="114">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G3" s="114">
+        <v>1.083</v>
+      </c>
+      <c r="H3" s="114">
+        <v>102</v>
+      </c>
+      <c r="I3" s="114">
+        <v>0</v>
+      </c>
+      <c r="J3" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="114">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D4" s="114">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E4" s="114">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="F4" s="114">
+        <v>0.122</v>
+      </c>
+      <c r="G4" s="114">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="H4" s="114">
+        <v>31</v>
+      </c>
+      <c r="I4" s="114">
+        <v>0</v>
+      </c>
+      <c r="J4" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="114">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D5" s="114">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E5" s="114">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="F5" s="114">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G5" s="114">
+        <v>0.98</v>
+      </c>
+      <c r="H5" s="114">
+        <v>88</v>
+      </c>
+      <c r="I5" s="114">
+        <v>0</v>
+      </c>
+      <c r="J5" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="114">
+        <v>0.24</v>
+      </c>
+      <c r="D6" s="114">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E6" s="114">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="F6" s="114">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="114">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="H6" s="114">
+        <v>31</v>
+      </c>
+      <c r="I6" s="114">
+        <v>0</v>
+      </c>
+      <c r="J6" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="114">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D7" s="114">
+        <v>0.628</v>
+      </c>
+      <c r="E7" s="114">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="F7" s="114">
+        <v>0.157</v>
+      </c>
+      <c r="G7" s="114">
+        <v>0.877</v>
+      </c>
+      <c r="H7" s="114">
+        <v>186</v>
+      </c>
+      <c r="I7" s="114">
+        <v>0</v>
+      </c>
+      <c r="J7" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="114">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D8" s="114">
+        <v>0.34</v>
+      </c>
+      <c r="E8" s="114">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F8" s="114">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G8" s="114">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H8" s="114">
+        <v>88</v>
+      </c>
+      <c r="I8" s="114">
+        <v>4</v>
+      </c>
+      <c r="J8" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="114">
+        <v>0.496</v>
+      </c>
+      <c r="D9" s="114">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E9" s="114">
+        <v>1.631</v>
+      </c>
+      <c r="F9" s="114">
+        <v>0.253</v>
+      </c>
+      <c r="G9" s="114">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="H9" s="114">
+        <v>155</v>
+      </c>
+      <c r="I9" s="114">
+        <v>0</v>
+      </c>
+      <c r="J9" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="114">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D10" s="114">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E10" s="114">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F10" s="114">
+        <v>0.121</v>
+      </c>
+      <c r="G10" s="114">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="H10" s="114">
+        <v>105</v>
+      </c>
+      <c r="I10" s="114">
+        <v>0</v>
+      </c>
+      <c r="J10" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="114">
+        <v>0.252</v>
+      </c>
+      <c r="D11" s="114">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E11" s="114">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="F11" s="114">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G11" s="114">
+        <v>0.504</v>
+      </c>
+      <c r="H11" s="114">
+        <v>57</v>
+      </c>
+      <c r="I11" s="114">
+        <v>0</v>
+      </c>
+      <c r="J11" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="114">
+        <v>0.245</v>
+      </c>
+      <c r="D12" s="114">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E12" s="114">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F12" s="114">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12" s="114">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H12" s="114">
+        <v>31</v>
+      </c>
+      <c r="I12" s="114">
+        <v>0</v>
+      </c>
+      <c r="J12" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="114">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D13" s="114">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="E13" s="114">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F13" s="114">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G13" s="114">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="H13" s="114">
+        <v>23</v>
+      </c>
+      <c r="I13" s="114">
+        <v>0</v>
+      </c>
+      <c r="J13" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="114">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="D14" s="114">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="E14" s="114">
+        <v>3.45</v>
+      </c>
+      <c r="F14" s="114">
+        <v>0.314</v>
+      </c>
+      <c r="G14" s="114">
+        <v>2.617</v>
+      </c>
+      <c r="H14" s="114">
+        <v>30</v>
+      </c>
+      <c r="I14" s="114">
+        <v>0</v>
+      </c>
+      <c r="J14" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="114">
+        <v>1.994</v>
+      </c>
+      <c r="D15" s="114">
+        <v>2.5310000000000001</v>
+      </c>
+      <c r="E15" s="114">
+        <v>3.798</v>
+      </c>
+      <c r="F15" s="114">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="G15" s="114">
+        <v>3.3660000000000001</v>
+      </c>
+      <c r="H15" s="114">
+        <v>25</v>
+      </c>
+      <c r="I15" s="114">
+        <v>0</v>
+      </c>
+      <c r="J15" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="114">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="D16" s="114">
+        <v>2.8780000000000001</v>
+      </c>
+      <c r="E16" s="114">
+        <v>4.5129999999999999</v>
+      </c>
+      <c r="F16" s="114">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G16" s="114">
+        <v>3.222</v>
+      </c>
+      <c r="H16" s="114">
+        <v>23</v>
+      </c>
+      <c r="I16" s="114">
+        <v>0</v>
+      </c>
+      <c r="J16" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="114">
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="D17" s="114">
+        <v>3.0390000000000001</v>
+      </c>
+      <c r="E17" s="114">
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="F17" s="114">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G17" s="114">
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="H17" s="114">
+        <v>34</v>
+      </c>
+      <c r="I17" s="114">
+        <v>4</v>
+      </c>
+      <c r="J17" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="114">
+        <v>3.012</v>
+      </c>
+      <c r="D18" s="114">
+        <v>4.1189999999999998</v>
+      </c>
+      <c r="E18" s="114">
+        <v>5.61</v>
+      </c>
+      <c r="F18" s="114">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="G18" s="114">
+        <v>4.8689999999999998</v>
+      </c>
+      <c r="H18" s="114">
+        <v>57</v>
+      </c>
+      <c r="I18" s="114">
+        <v>0</v>
+      </c>
+      <c r="J18" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="116">
-        <v>1.9690000000000001</v>
-      </c>
-      <c r="D2" s="116">
-        <v>3.1579999999999999</v>
-      </c>
-      <c r="E2" s="116">
-        <v>5.61</v>
-      </c>
-      <c r="F2" s="116">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="G2" s="116">
-        <v>4.3040000000000003</v>
-      </c>
-      <c r="H2" s="116">
-        <v>179</v>
-      </c>
-      <c r="I2" s="116">
-        <v>7</v>
-      </c>
-      <c r="J2" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="115" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="116">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="D3" s="116">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="E3" s="116">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="F3" s="116">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="G3" s="116">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="H3" s="116">
-        <v>91</v>
-      </c>
-      <c r="I3" s="116">
-        <v>0</v>
-      </c>
-      <c r="J3" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="115" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="116">
-        <v>0.46</v>
-      </c>
-      <c r="D4" s="116">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="E4" s="116">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="F4" s="116">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="G4" s="116">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H4" s="116">
-        <v>107</v>
-      </c>
-      <c r="I4" s="116">
-        <v>0</v>
-      </c>
-      <c r="J4" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="116">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D5" s="116">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="E5" s="116">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="F5" s="116">
-        <v>0.11</v>
-      </c>
-      <c r="G5" s="116">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="H5" s="116">
-        <v>31</v>
-      </c>
-      <c r="I5" s="116">
-        <v>0</v>
-      </c>
-      <c r="J5" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="116">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D6" s="116">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="E6" s="116">
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="F6" s="116">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="G6" s="116">
-        <v>0.98</v>
-      </c>
-      <c r="H6" s="116">
-        <v>89</v>
-      </c>
-      <c r="I6" s="116">
-        <v>0</v>
-      </c>
-      <c r="J6" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="116">
-        <v>0.24</v>
-      </c>
-      <c r="D7" s="116">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E7" s="116">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="F7" s="116">
-        <v>6.3E-2</v>
-      </c>
-      <c r="G7" s="116">
-        <v>0.373</v>
-      </c>
-      <c r="H7" s="116">
-        <v>31</v>
-      </c>
-      <c r="I7" s="116">
-        <v>0</v>
-      </c>
-      <c r="J7" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="116">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="D8" s="116">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="E8" s="116">
-        <v>1.3080000000000001</v>
-      </c>
-      <c r="F8" s="116">
-        <v>0.182</v>
-      </c>
-      <c r="G8" s="116">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="H8" s="116">
-        <v>187</v>
-      </c>
-      <c r="I8" s="116">
-        <v>0</v>
-      </c>
-      <c r="J8" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="116">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="D9" s="116">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="E9" s="116">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="F9" s="116">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G9" s="116">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="H9" s="116">
-        <v>91</v>
-      </c>
-      <c r="I9" s="116">
-        <v>6</v>
-      </c>
-      <c r="J9" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="116">
-        <v>0.496</v>
-      </c>
-      <c r="D10" s="116">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="E10" s="116">
-        <v>2.6019999999999999</v>
-      </c>
-      <c r="F10" s="116">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="G10" s="116">
-        <v>1.375</v>
-      </c>
-      <c r="H10" s="116">
-        <v>155</v>
-      </c>
-      <c r="I10" s="116">
-        <v>0</v>
-      </c>
-      <c r="J10" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="116">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="D11" s="116">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="E11" s="116">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="F11" s="116">
-        <v>0.122</v>
-      </c>
-      <c r="G11" s="116">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="H11" s="116">
-        <v>104</v>
-      </c>
-      <c r="I11" s="116">
-        <v>0</v>
-      </c>
-      <c r="J11" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="116">
-        <v>0.252</v>
-      </c>
-      <c r="D12" s="116">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="E12" s="116">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="F12" s="116">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G12" s="116">
-        <v>0.504</v>
-      </c>
-      <c r="H12" s="116">
-        <v>57</v>
-      </c>
-      <c r="I12" s="116">
-        <v>0</v>
-      </c>
-      <c r="J12" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="115" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="116">
-        <v>0.245</v>
-      </c>
-      <c r="D13" s="116">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="E13" s="116">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="F13" s="116">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G13" s="116">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="H13" s="116">
-        <v>31</v>
-      </c>
-      <c r="I13" s="116">
-        <v>0</v>
-      </c>
-      <c r="J13" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="115" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="116">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D14" s="116">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="E14" s="116">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="F14" s="116">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="G14" s="116">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="H14" s="116">
-        <v>22</v>
-      </c>
-      <c r="I14" s="116">
-        <v>1</v>
-      </c>
-      <c r="J14" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="115" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="116">
-        <v>1.9690000000000001</v>
-      </c>
-      <c r="D15" s="116">
-        <v>2.3340000000000001</v>
-      </c>
-      <c r="E15" s="116">
-        <v>3.45</v>
-      </c>
-      <c r="F15" s="116">
-        <v>0.312</v>
-      </c>
-      <c r="G15" s="116">
-        <v>2.617</v>
-      </c>
-      <c r="H15" s="116">
-        <v>31</v>
-      </c>
-      <c r="I15" s="116">
-        <v>0</v>
-      </c>
-      <c r="J15" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="115" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="116">
-        <v>1.994</v>
-      </c>
-      <c r="D16" s="116">
-        <v>2.552</v>
-      </c>
-      <c r="E16" s="116">
-        <v>3.798</v>
-      </c>
-      <c r="F16" s="116">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="G16" s="116">
-        <v>3.3660000000000001</v>
-      </c>
-      <c r="H16" s="116">
-        <v>25</v>
-      </c>
-      <c r="I16" s="116">
-        <v>0</v>
-      </c>
-      <c r="J16" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="115" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="116">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="D17" s="116">
-        <v>2.8730000000000002</v>
-      </c>
-      <c r="E17" s="116">
-        <v>4.5129999999999999</v>
-      </c>
-      <c r="F17" s="116">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="G17" s="116">
-        <v>3.222</v>
-      </c>
-      <c r="H17" s="116">
-        <v>22</v>
-      </c>
-      <c r="I17" s="116">
-        <v>1</v>
-      </c>
-      <c r="J17" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="115" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="116">
-        <v>2.3380000000000001</v>
-      </c>
-      <c r="D18" s="116">
-        <v>3.0390000000000001</v>
-      </c>
-      <c r="E18" s="116">
-        <v>4.7709999999999999</v>
-      </c>
-      <c r="F18" s="116">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="G18" s="116">
-        <v>3.6869999999999998</v>
-      </c>
-      <c r="H18" s="116">
-        <v>34</v>
-      </c>
-      <c r="I18" s="116">
-        <v>6</v>
-      </c>
-      <c r="J18" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="115" t="s">
+      <c r="B19" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="116">
-        <v>3.012</v>
-      </c>
-      <c r="D19" s="116">
-        <v>4.1189999999999998</v>
-      </c>
-      <c r="E19" s="116">
-        <v>5.61</v>
-      </c>
-      <c r="F19" s="116">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="G19" s="116">
-        <v>4.8689999999999998</v>
-      </c>
-      <c r="H19" s="116">
-        <v>57</v>
-      </c>
-      <c r="I19" s="116">
-        <v>0</v>
-      </c>
-      <c r="J19" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="115" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="116">
+      <c r="C19" s="114">
         <v>2.0299999999999998</v>
       </c>
-      <c r="D20" s="116">
-        <v>2.778</v>
-      </c>
-      <c r="E20" s="116">
-        <v>4.8390000000000004</v>
-      </c>
-      <c r="F20" s="116">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="G20" s="116">
+      <c r="D19" s="114">
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="E19" s="114">
         <v>3.1019999999999999</v>
       </c>
-      <c r="H20" s="116">
+      <c r="F19" s="114">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G19" s="114">
+        <v>2.9420000000000002</v>
+      </c>
+      <c r="H19" s="113">
         <v>10</v>
       </c>
-      <c r="I20" s="116">
-        <v>0</v>
-      </c>
-      <c r="J20" s="116">
-        <v>0</v>
-      </c>
+      <c r="I19" s="114">
+        <v>0</v>
+      </c>
+      <c r="J19" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="106"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="116">
-        <v>1E-3</v>
-      </c>
-      <c r="D21" s="116">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E21" s="116">
-        <v>1.6E-2</v>
-      </c>
-      <c r="F21" s="116">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G21" s="116">
-        <v>1.6E-2</v>
-      </c>
-      <c r="H21" s="116">
-        <v>9</v>
-      </c>
-      <c r="I21" s="116">
-        <v>0</v>
-      </c>
-      <c r="J21" s="116">
-        <v>0</v>
-      </c>
+      <c r="A21" s="106"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="117"/>
+      <c r="A22" s="106"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" xr:uid="{BF5F7FC7-A479-46F9-ACD3-72737B3FF748}"/>
-    <hyperlink ref="A3" xr:uid="{026E7AB1-FCEE-46D0-BF91-CC2D03D25AB9}"/>
-    <hyperlink ref="A4" xr:uid="{805757A6-C5DE-47B8-B14E-E214A0C68BD4}"/>
-    <hyperlink ref="A5" xr:uid="{414C6188-186F-4F07-8055-469348538AA7}"/>
-    <hyperlink ref="A6" xr:uid="{99036039-C5C9-4B4E-9C5A-8F60229B3AC4}"/>
-    <hyperlink ref="A7" xr:uid="{687C548C-0DCA-4E34-B4B8-8757A0196829}"/>
-    <hyperlink ref="A8" xr:uid="{8CAD1642-7A0E-41E4-9EBE-69B43ED36167}"/>
-    <hyperlink ref="A9" xr:uid="{176531E2-33A6-4C27-A2AC-1C4D1F1ACE83}"/>
-    <hyperlink ref="A10" xr:uid="{F30AE43E-4C33-4C32-B4FB-90082A4B6D48}"/>
-    <hyperlink ref="A11" xr:uid="{82D3AC57-A4D0-4183-8B2F-7B9266C6BA5A}"/>
-    <hyperlink ref="A12" xr:uid="{DA1D90D3-E61F-4BD1-BFA6-97D02AA8E6EA}"/>
-    <hyperlink ref="A13" xr:uid="{661BE65C-37B6-4FB5-981A-8A839105C98A}"/>
-    <hyperlink ref="A14" xr:uid="{311B304F-83D2-421E-B6FF-B3171FC96273}"/>
-    <hyperlink ref="A15" xr:uid="{FA4323CF-AABF-4744-BB67-8C21A9D9B79F}"/>
-    <hyperlink ref="A16" xr:uid="{3BDFC910-CC72-4647-A259-D2E68D9133E1}"/>
-    <hyperlink ref="A17" xr:uid="{44624376-BC5B-437A-8B82-9A2C70E3E329}"/>
-    <hyperlink ref="A18" xr:uid="{DD872862-541F-4476-9D6A-23C85F4160C5}"/>
-    <hyperlink ref="A19" xr:uid="{99B2DA88-2ADD-4D39-97BA-B622982E1FAD}"/>
-    <hyperlink ref="A20" xr:uid="{E71F4B8B-9DEF-4255-A071-65121D44E2E2}"/>
-    <hyperlink ref="A21" xr:uid="{AC94B147-5636-4A18-8F92-BB5D2739E571}"/>
+    <hyperlink ref="A2" xr:uid="{1A2D7DFA-87BB-42B9-ABFA-6BACBB5C02D5}"/>
+    <hyperlink ref="A3" xr:uid="{B2E5DEFF-90B8-4977-AFDE-5D7F9B4C3356}"/>
+    <hyperlink ref="A4" xr:uid="{668ABCB5-D5C9-4DB2-A1F4-CEB6A3DD78D0}"/>
+    <hyperlink ref="A5" xr:uid="{AE7584C7-88D4-4D98-8392-FCC9F5689AE5}"/>
+    <hyperlink ref="A6" xr:uid="{5FE40E51-9D1E-44A7-9671-9514C111D8C7}"/>
+    <hyperlink ref="A7" xr:uid="{AABA0309-10A0-469D-889D-36328867D41D}"/>
+    <hyperlink ref="A8" xr:uid="{38E6A321-8944-4655-AE29-A41440ABB56B}"/>
+    <hyperlink ref="A9" xr:uid="{A1988DA0-742C-47C4-8591-0E44D754F96B}"/>
+    <hyperlink ref="A10" xr:uid="{DF91D120-E7AD-418B-8352-00C658B1CA26}"/>
+    <hyperlink ref="A11" xr:uid="{F65D6814-60CE-4A6E-9A2F-F0CB06C90CD2}"/>
+    <hyperlink ref="A12" xr:uid="{80D30D61-21EE-464D-A48F-629698591DE4}"/>
+    <hyperlink ref="A13" xr:uid="{213A7945-2AFA-4DC7-8B59-57775DB07BB3}"/>
+    <hyperlink ref="A14" xr:uid="{68DBDB7C-6104-4939-8923-31F2EBDF8401}"/>
+    <hyperlink ref="A15" xr:uid="{08D15DA6-6AC2-4660-8979-0C91045A0077}"/>
+    <hyperlink ref="A16" xr:uid="{ABCE5691-940D-4014-B9B8-DBC7F4425BB1}"/>
+    <hyperlink ref="A17" xr:uid="{615F7BB5-D6FA-4371-8AB1-BB736AEB0B9A}"/>
+    <hyperlink ref="A18" xr:uid="{D706BAE4-68E1-4FCC-A401-02E18B946686}"/>
+    <hyperlink ref="A19" xr:uid="{1FEE22C1-7CA4-43F2-BD62-7EB40247BAF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6612,13 +5379,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
     </row>
     <row r="11" spans="5:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
@@ -6771,13 +5538,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="103" t="s">
+      <c r="E23" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" s="8" t="s">
@@ -6937,13 +5704,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E35" s="103" t="s">
+      <c r="E35" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E37" s="8" t="s">

--- a/Документы/Профиль_нагрузки.xlsx
+++ b/Документы/Профиль_нагрузки.xlsx
@@ -5,22 +5,23 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ed230\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LoadRunner\LRProjects\Скрипты\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B3CB15-B7C2-4DE4-ABF6-ED8783DBEEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EEC31C-5D11-4439-9FD2-26C4605A68E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="646" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
     <sheet name="Соответствие" sheetId="4" r:id="rId2"/>
     <sheet name="SummaryReport" sheetId="5" r:id="rId3"/>
     <sheet name="Результаты всех тестов" sheetId="2" r:id="rId4"/>
+    <sheet name="findMax" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -222,27 +223,308 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="M26" authorId="0" shapeId="0" xr:uid="{60A349C0-5B53-42E7-8304-FC83198E7FC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Duration - заполняется на основе данных после выполнения итерации соотвествующего скрипта в Vugen'е</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N26" authorId="0" shapeId="0" xr:uid="{16F5D66E-78C8-477D-A277-A217E3A2280F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ThinkTime - заполнятеся на основе ThinkTime'ов по выполнению одной итерации соотвествующего скрипта в Vugen'е
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{B6DF1C21-DA0A-402A-81A7-9A16794C63E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Общая длительность одной итерации скрипта ThinkTime + Duration, считается автоматически</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P26" authorId="0" shapeId="0" xr:uid="{6ED30422-09E7-46FF-A2A4-4D2B27153377}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Pacing не должен быть меньше чем Duration + think time (столбец P). Изначально считается как Duration + think time * 2 (коэф запаса времени), далее подгоняется вручную</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{9044169F-757B-45E1-9C09-479B44BBDC49}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Duration - заполняется на основе данных после выполнения итерации соотвествующего скрипта в Vugen'е</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{89A9CF09-9777-4FF0-B6BD-62C03A65DA5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ThinkTime - заполнятеся на основе ThinkTime'ов по выполнению одной итерации соотвествующего скрипта в Vugen'е
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{5D1936A1-76F5-4972-B0DD-2319BBE38D8C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Общая длительность одной итерации скрипта ThinkTime + Duration, считается автоматически</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{2DC1A956-AED4-44BE-8F11-C38D333D6EF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Pacing не должен быть меньше чем Duration + think time (столбец P). Изначально считается как Duration + think time * 2 (коэф запаса времени), далее подгоняется вручную</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="98">
   <si>
     <t>Вход в систему</t>
   </si>
   <si>
-    <t>Заполнение полей для поиска билета</t>
-  </si>
-  <si>
-    <t>Выбор рейса из найденных</t>
-  </si>
-  <si>
     <t>Оплата билета</t>
   </si>
   <si>
     <t>Просмотр квитанций</t>
   </si>
   <si>
-    <t>Отмена бронирования билета</t>
-  </si>
-  <si>
     <t>Выход из системы</t>
   </si>
   <si>
@@ -282,30 +564,12 @@
     <t>% отклонения</t>
   </si>
   <si>
-    <t>payment_details</t>
-  </si>
-  <si>
-    <t>Просмотр квитанции</t>
-  </si>
-  <si>
-    <t>Cancel_reservation</t>
-  </si>
-  <si>
-    <t>Check_ticket</t>
-  </si>
-  <si>
-    <t>fing_flight</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
     <t>logout</t>
   </si>
   <si>
-    <t>select_ticket</t>
-  </si>
-  <si>
     <t>Transaction Name</t>
   </si>
   <si>
@@ -324,18 +588,6 @@
     <t>Подтверждение максимума</t>
   </si>
   <si>
-    <t>Профиль для 5 пользаков</t>
-  </si>
-  <si>
-    <t>1 315,</t>
-  </si>
-  <si>
-    <t>1 970,</t>
-  </si>
-  <si>
-    <t>1 675,</t>
-  </si>
-  <si>
     <t>Script name</t>
   </si>
   <si>
@@ -529,13 +781,40 @@
   </si>
   <si>
     <t>UC6_Login</t>
+  </si>
+  <si>
+    <t>Профиль для 9 пользователей</t>
+  </si>
+  <si>
+    <t>ПЭЙСИНГ БЫЛ СНИЖЕН, ТАК КАК ПРИ ПЕРВОНАЧАЛЬНЫХ ЗАПУСКАХ МАКСИМАЛЬНАЯ ПРОИЗВОДИТЕЛЬНОСТЬ НЕ БЫЛА ДОСТИГНУТА</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>1-Я СТУПЕНЬ</t>
+  </si>
+  <si>
+    <t>2-Я СТУПЕНЬ</t>
+  </si>
+  <si>
+    <t>3-Я СТУПЕНЬ</t>
+  </si>
+  <si>
+    <t>4-Я СТУПЕНЬ</t>
+  </si>
+  <si>
+    <t>5-Я СТУПЕНЬ</t>
+  </si>
+  <si>
+    <t>SLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,8 +1100,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="48">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1089,6 +1375,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,7 +1889,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1587,35 +1897,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42"/>
@@ -1741,6 +2026,13 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="66" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1756,12 +2048,72 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="66" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="33" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="48" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="48" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="49" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="51" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="51" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="81">
@@ -1852,22 +2204,22 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2650,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2679,1863 +3031,1863 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="46" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="U1" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="79">
+      <c r="C2" s="70">
         <v>1</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="71">
         <f>VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E2" s="81">
+      <c r="E2" s="72">
         <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="F2" s="82">
+      <c r="F2" s="73">
         <f t="shared" ref="F2:F23" si="0">60/E2*C2</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="G2" s="81">
+      <c r="G2" s="72">
         <f t="shared" ref="G2:G34" si="1">VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="83">
+      <c r="H2" s="74">
         <f>D2*F2*G2</f>
         <v>55.384615384615387</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="8">
         <v>147.74725274725273</v>
       </c>
-      <c r="M2" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="18">
+      <c r="M2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="35">
+      <c r="N2" s="9">
+        <v>5</v>
+      </c>
+      <c r="O2" s="26">
         <v>30</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="27">
         <f>N2+O2</f>
         <v>35</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="15">
         <v>65</v>
       </c>
-      <c r="R2" s="44">
+      <c r="R2" s="35">
         <v>3</v>
       </c>
-      <c r="S2" s="45">
+      <c r="S2" s="36">
         <f t="shared" ref="S2:S7" si="2">R2/W$2</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T2" s="59">
+      <c r="T2" s="50">
         <f>60/(Q2)</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="U2" s="48">
+      <c r="U2" s="39">
         <v>20</v>
       </c>
-      <c r="V2" s="49">
+      <c r="V2" s="40">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>55</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="19">
         <f>SUM(R2:R7)</f>
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="78" t="s">
+      <c r="A3" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="70">
         <v>1</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="75">
         <f>VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="81">
+      <c r="E3" s="72">
         <f>VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="73">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="72">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H3" s="83">
+      <c r="H3" s="74">
         <f>D3*F3*G3</f>
         <v>55.384615384615387</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="17">
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="8">
         <v>89.670329670329664</v>
       </c>
-      <c r="M3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="18">
+      <c r="M3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="9">
         <v>5</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="26">
         <v>20.0014</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="27">
         <f t="shared" ref="P3:P7" si="3">N3+O3</f>
         <v>25.0014</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="15">
         <v>52</v>
       </c>
-      <c r="R3" s="44">
+      <c r="R3" s="35">
         <v>1</v>
       </c>
-      <c r="S3" s="45">
+      <c r="S3" s="36">
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="T3" s="59">
+      <c r="T3" s="50">
         <f>60/(Q3)</f>
         <v>1.1538461538461537</v>
       </c>
-      <c r="U3" s="48">
+      <c r="U3" s="39">
         <v>20</v>
       </c>
-      <c r="V3" s="49">
+      <c r="V3" s="40">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>23</v>
       </c>
-      <c r="W3" s="28"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="79">
+      <c r="A4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="70">
         <v>1</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="75">
         <f>VLOOKUP(A5,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="72">
         <f>VLOOKUP(A5,$M$1:$X$8,5,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="73">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="72">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H4" s="83">
+      <c r="H4" s="74">
         <f>D4*F4*G4</f>
         <v>55.384615384615387</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="17">
+      <c r="I4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8">
         <v>103.46153846153845</v>
       </c>
-      <c r="M4" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="18">
+      <c r="M4" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="9">
         <v>5</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="26">
         <v>20</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="27">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="15">
         <v>39</v>
       </c>
-      <c r="R4" s="44">
+      <c r="R4" s="35">
         <v>1</v>
       </c>
-      <c r="S4" s="45">
+      <c r="S4" s="36">
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="T4" s="59">
+      <c r="T4" s="50">
         <f t="shared" ref="T4:T7" si="4">60/(Q4)</f>
         <v>1.5384615384615385</v>
       </c>
-      <c r="U4" s="48">
+      <c r="U4" s="39">
         <v>20</v>
       </c>
-      <c r="V4" s="49">
+      <c r="V4" s="40">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>31</v>
       </c>
-      <c r="W4" s="28"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="79">
+      <c r="C5" s="70">
         <v>1</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="75">
         <f>VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="72">
         <f>VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="73">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="72">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="74">
         <f t="shared" ref="H5" si="5">D5*F5*G5</f>
         <v>55.384615384615387</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="17">
+      <c r="I5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8">
         <v>89.670329670329664</v>
       </c>
-      <c r="M5" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="18">
+      <c r="M5" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="9">
         <v>5</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5" s="26">
         <v>20</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="27">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="15">
         <v>70</v>
       </c>
-      <c r="R5" s="44">
+      <c r="R5" s="35">
         <v>2</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="36">
         <f t="shared" si="2"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="T5" s="59">
+      <c r="T5" s="50">
         <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U5" s="48">
+      <c r="U5" s="39">
         <v>20</v>
       </c>
-      <c r="V5" s="49">
+      <c r="V5" s="40">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>34</v>
       </c>
-      <c r="W5" s="28"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="79">
+      <c r="A6" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="70">
         <v>1</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="75">
         <f t="shared" ref="D6:D28" si="6">VLOOKUP(A6,$M$1:$X$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="72">
         <f t="shared" ref="E6:E34" si="7">VLOOKUP(A6,$M$1:$X$8,5,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="73">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="72">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H6" s="83">
+      <c r="H6" s="74">
         <f t="shared" ref="H6:H16" si="8">D6*F6*G6</f>
         <v>55.384615384615387</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>55.384615384615387</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="9">
         <v>3</v>
       </c>
-      <c r="J6" s="17">
-        <v>55.384615384615387</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="18">
-        <v>3</v>
-      </c>
-      <c r="O6" s="35">
+      <c r="O6" s="26">
         <v>15</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="27">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="15">
         <v>48</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="35">
         <v>1</v>
       </c>
-      <c r="S6" s="45">
+      <c r="S6" s="36">
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="T6" s="59">
+      <c r="T6" s="50">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="U6" s="48">
+      <c r="U6" s="39">
         <v>20</v>
       </c>
-      <c r="V6" s="49">
+      <c r="V6" s="40">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>25</v>
       </c>
-      <c r="W6" s="28"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="79">
+      <c r="A7" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="84">
+      <c r="C7" s="70">
+        <v>1</v>
+      </c>
+      <c r="D7" s="75">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="72">
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="73">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="72">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="74">
         <f t="shared" si="8"/>
         <v>55.384615384615387</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="I7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8">
         <v>23.076923076923073</v>
       </c>
-      <c r="M7" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="104">
+      <c r="M7" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="95">
         <v>4</v>
       </c>
-      <c r="O7" s="105">
+      <c r="O7" s="96">
         <v>15</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="27">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="15">
         <v>120</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="35">
         <v>1</v>
       </c>
-      <c r="S7" s="45">
+      <c r="S7" s="36">
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="T7" s="59">
+      <c r="T7" s="50">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U7" s="60">
+      <c r="U7" s="51">
         <v>20</v>
       </c>
-      <c r="V7" s="61">
+      <c r="V7" s="52">
         <f>SUM(V2:V6)</f>
         <v>168</v>
       </c>
-      <c r="W7" s="62"/>
+      <c r="W7" s="53"/>
     </row>
     <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="22">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="102">
+      <c r="D8" s="93">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="90">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F8" s="100">
+      <c r="F8" s="91">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G8" s="101">
+      <c r="G8" s="92">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H8" s="99">
+      <c r="H8" s="90">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="I8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8">
         <v>88.84615384615384</v>
       </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="50">
+      <c r="M8" s="33"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="41">
         <f>SUM(S2:S7)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="58"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="29"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="89">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="90">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F9" s="100">
+      <c r="F9" s="91">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="92">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H9" s="99">
+      <c r="H9" s="90">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="I9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="8">
         <v>178.5164835164835</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="22">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13">
         <v>1</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="89">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="90">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F10" s="100">
+      <c r="F10" s="91">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G10" s="101">
+      <c r="G10" s="92">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H10" s="99">
+      <c r="H10" s="90">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="I10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="8">
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="22">
+      <c r="A11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="89">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="90">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="91">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="92">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H11" s="99">
+      <c r="H11" s="90">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="I11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="8">
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="22">
+      <c r="B12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13">
         <v>1</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="94">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="90">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="F12" s="100">
+      <c r="F12" s="91">
         <f t="shared" si="0"/>
         <v>1.1538461538461537</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="92">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H12" s="99">
+      <c r="H12" s="90">
         <f t="shared" si="8"/>
         <v>23.076923076923073</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="I12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="8">
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="91">
+      <c r="A13" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="82">
         <v>1</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="83">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="84">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="85">
         <f t="shared" si="0"/>
         <v>1.5384615384615385</v>
       </c>
-      <c r="G13" s="95">
+      <c r="G13" s="86">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H13" s="93">
+      <c r="H13" s="84">
         <f t="shared" si="8"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="I13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="8">
         <v>99.670329670329664</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="91">
+      <c r="A14" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="82">
         <v>1</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="87">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="84">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F14" s="94">
+      <c r="F14" s="85">
         <f t="shared" si="0"/>
         <v>1.5384615384615385</v>
       </c>
-      <c r="G14" s="95">
+      <c r="G14" s="86">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H14" s="93">
+      <c r="H14" s="84">
         <f t="shared" si="8"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="I14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="8">
         <v>968.35164835164812</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="91">
+      <c r="A15" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="82">
         <v>1</v>
       </c>
-      <c r="D15" s="96">
+      <c r="D15" s="87">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="84">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F15" s="85">
         <f t="shared" si="0"/>
         <v>1.5384615384615385</v>
       </c>
-      <c r="G15" s="95">
+      <c r="G15" s="86">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H15" s="93">
+      <c r="H15" s="84">
         <f t="shared" si="8"/>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="91">
+      <c r="A16" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="82">
         <v>1</v>
       </c>
-      <c r="D16" s="96">
+      <c r="D16" s="87">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="84">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F16" s="94">
+      <c r="F16" s="85">
         <f t="shared" si="0"/>
         <v>1.5384615384615385</v>
       </c>
-      <c r="G16" s="95">
+      <c r="G16" s="86">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H16" s="93">
+      <c r="H16" s="84">
         <f t="shared" si="8"/>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="91">
+      <c r="A17" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="82">
         <v>1</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="87">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E17" s="93">
+      <c r="E17" s="84">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="85">
         <f t="shared" si="0"/>
         <v>1.5384615384615385</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="86">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H17" s="93">
+      <c r="H17" s="84">
         <f t="shared" ref="H17" si="9">D17*F17*G17</f>
         <v>30.76923076923077</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="91">
+      <c r="A18" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="82">
         <v>0</v>
       </c>
-      <c r="D18" s="96">
+      <c r="D18" s="87">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E18" s="93">
+      <c r="E18" s="84">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="F18" s="94">
+      <c r="F18" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="95">
+      <c r="G18" s="86">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H18" s="93">
+      <c r="H18" s="84">
         <f t="shared" ref="H18" si="10">D18*F18*G18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="64">
+      <c r="A19" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="55">
         <v>1</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="56">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="57">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="58">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="57">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="59">
         <f>D19*F19*G19</f>
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="63" t="s">
+      <c r="A20" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="55">
         <v>1</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="60">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="57">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="58">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="57">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="59">
         <f t="shared" ref="H20:H34" si="11">D20*F20*G20</f>
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="64">
+      <c r="A21" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="55">
         <v>1</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="60">
         <f t="shared" ref="D21" si="12">VLOOKUP(A21,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="57">
         <f t="shared" ref="E21" si="13">VLOOKUP(A21,$M$1:$X$8,5,FALSE)</f>
         <v>120</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="58">
         <f t="shared" ref="F21" si="14">60/E21*C21</f>
         <v>0.5</v>
       </c>
-      <c r="G21" s="66">
+      <c r="G21" s="57">
         <f t="shared" ref="G21" si="15">VLOOKUP(A21,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="59">
         <f t="shared" ref="H21" si="16">D21*F21*G21</f>
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="64">
+      <c r="A22" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="55">
         <v>1</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="60">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="57">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="58">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="57">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="59">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="64">
+      <c r="A23" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="55">
         <v>0</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="61">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="57">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="57">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="59">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="86">
+      <c r="A24" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="77">
         <v>1</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="78">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="79">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="80">
         <f t="shared" ref="F24:F34" si="17">60/E24*C24</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G24" s="88">
+      <c r="G24" s="79">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H24" s="90">
+      <c r="H24" s="81">
         <f t="shared" si="11"/>
         <v>34.285714285714285</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="86" t="s">
+      <c r="A25" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="77">
         <v>1</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="78">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="79">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="F25" s="89">
+      <c r="F25" s="80">
         <f t="shared" si="17"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G25" s="88">
+      <c r="G25" s="79">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="81">
         <f t="shared" si="11"/>
         <v>34.285714285714285</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="86">
+      <c r="A26" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="77">
         <v>1</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="78">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="79">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="F26" s="89">
+      <c r="F26" s="80">
         <f t="shared" si="17"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G26" s="88">
+      <c r="G26" s="79">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="81">
         <f t="shared" si="11"/>
         <v>34.285714285714285</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="86">
+      <c r="A27" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="77">
         <v>1</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="78">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="79">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="F27" s="89">
+      <c r="F27" s="80">
         <f t="shared" si="17"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G27" s="88">
+      <c r="G27" s="79">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="81">
         <f t="shared" si="11"/>
         <v>34.285714285714285</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="86">
+      <c r="A28" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="77">
         <v>1</v>
       </c>
-      <c r="D28" s="87">
+      <c r="D28" s="78">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E28" s="88">
+      <c r="E28" s="79">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="F28" s="89">
+      <c r="F28" s="80">
         <f t="shared" si="17"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G28" s="88">
+      <c r="G28" s="79">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H28" s="90">
+      <c r="H28" s="81">
         <f t="shared" ref="H28" si="18">D28*F28*G28</f>
         <v>34.285714285714285</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="86">
+      <c r="A29" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="77">
         <v>0</v>
       </c>
-      <c r="D29" s="87">
+      <c r="D29" s="78">
         <f t="shared" ref="D29:D34" si="19">VLOOKUP(A29,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E29" s="88">
+      <c r="E29" s="79">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="80">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G29" s="88">
+      <c r="G29" s="79">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H29" s="90">
+      <c r="H29" s="81">
         <f>D29*F29*G29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="78">
+      <c r="A30" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="69">
         <v>1</v>
       </c>
-      <c r="D30" s="85">
+      <c r="D30" s="76">
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="72">
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="F30" s="82">
+      <c r="F30" s="73">
         <f t="shared" si="17"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="72">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H30" s="83">
+      <c r="H30" s="74">
         <f>D30*F30*G30</f>
         <v>55.384615384615387</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="71">
+      <c r="A31" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="62">
         <v>1</v>
       </c>
-      <c r="D31" s="72">
+      <c r="D31" s="63">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="E31" s="73">
+      <c r="E31" s="64">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="F31" s="74">
+      <c r="F31" s="65">
         <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-      <c r="G31" s="73">
+      <c r="G31" s="64">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H31" s="75">
+      <c r="H31" s="66">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="71" t="s">
+      <c r="A32" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="71">
+      <c r="C32" s="62">
         <v>1</v>
       </c>
-      <c r="D32" s="76">
+      <c r="D32" s="67">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="E32" s="73">
+      <c r="E32" s="64">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="F32" s="74">
+      <c r="F32" s="65">
         <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-      <c r="G32" s="73">
+      <c r="G32" s="64">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H32" s="75">
+      <c r="H32" s="66">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="71">
+      <c r="A33" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="62">
         <v>1</v>
       </c>
-      <c r="D33" s="76">
+      <c r="D33" s="67">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="E33" s="73">
+      <c r="E33" s="64">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="F33" s="74">
+      <c r="F33" s="65">
         <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-      <c r="G33" s="73">
+      <c r="G33" s="64">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H33" s="75">
+      <c r="H33" s="66">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="71">
+      <c r="A34" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="62">
         <v>1</v>
       </c>
-      <c r="D34" s="77">
+      <c r="D34" s="68">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="E34" s="73">
+      <c r="E34" s="64">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="F34" s="74">
+      <c r="F34" s="65">
         <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
-      <c r="G34" s="73">
+      <c r="G34" s="64">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H34" s="75">
+      <c r="H34" s="66">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="109" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="110"/>
+      <c r="A38" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="102"/>
+      <c r="C38" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="104"/>
     </row>
     <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.35">
-      <c r="A39" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="21" t="s">
+      <c r="A39" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>60</v>
+      <c r="B39" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="52">
+      <c r="A40" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="43">
         <v>520</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="27">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A40)*3</f>
         <v>535.54945054945051</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="10">
         <f>1-B40/C40</f>
         <v>2.903457474094584E-2</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="56" t="str">
+      <c r="E40" s="22"/>
+      <c r="F40" s="47" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_welcome_page</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="24">
         <f>C40/3</f>
         <v>178.5164835164835</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="13">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
         <v>186</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="11">
         <f t="shared" ref="I40:I51" si="20">1-G40/H40</f>
         <v>4.0233959588798385E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="52">
+      <c r="B41" s="43">
         <v>422</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="27">
         <f t="shared" ref="C41:C51" si="21">GETPIVOTDATA("Итого",$I$1,"transaction rq",A41)*3</f>
         <v>443.24175824175819</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="10">
         <f>1-B41/C41</f>
         <v>4.7923639519028005E-2</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="56" t="str">
+      <c r="E41" s="22"/>
+      <c r="F41" s="47" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>login</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="24">
         <f t="shared" ref="G41:G51" si="22">C41/3</f>
         <v>147.74725274725273</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="13">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
         <v>155</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="11">
         <f t="shared" si="20"/>
         <v>4.6791917759659851E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="52">
+      <c r="A42" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="43">
         <v>305</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="27">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A42)*3</f>
         <v>299.01098901098896</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="10">
         <f>1-B42/C42</f>
         <v>-2.0029400955531296E-2</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="56" t="str">
+      <c r="E42" s="22"/>
+      <c r="F42" s="47" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_flights</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="24">
         <f t="shared" si="22"/>
         <v>99.67032967032965</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="13">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
         <v>102</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="11">
         <f t="shared" si="20"/>
         <v>2.2839905192846621E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="52">
+      <c r="A43" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="43">
         <v>282</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="27">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A43)*3</f>
         <v>269.01098901098896</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="10">
         <f t="shared" ref="D43:D52" si="23">1-B43/C43</f>
         <v>-4.8284313725490469E-2</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="56" t="str">
+      <c r="E43" s="22"/>
+      <c r="F43" s="47" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>input_data_to_find_tickets</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="24">
         <f t="shared" si="22"/>
         <v>89.67032967032965</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="13">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
         <v>88</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="11">
         <f t="shared" si="20"/>
         <v>-1.8981018981018671E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="52">
+      <c r="A44" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="43">
         <v>270</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="27">
         <f t="shared" si="21"/>
         <v>269.01098901098896</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="10">
         <f t="shared" si="23"/>
         <v>-3.6764705882355031E-3</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="56" t="str">
+      <c r="E44" s="22"/>
+      <c r="F44" s="47" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>choose_ticket</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="24">
         <f>C44/3</f>
         <v>89.67032967032965</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="13">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
         <v>88</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="11">
         <f t="shared" si="20"/>
         <v>-1.8981018981018671E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="52">
+      <c r="A45" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="43">
         <v>175</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="27">
         <f t="shared" si="21"/>
         <v>166.15384615384616</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="10">
         <f t="shared" si="23"/>
         <v>-5.32407407407407E-2</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="56" t="str">
+      <c r="E45" s="22"/>
+      <c r="F45" s="47" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>payment</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="24">
         <f t="shared" si="22"/>
         <v>55.384615384615387</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="13">
         <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
         <v>57</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="11">
         <f t="shared" si="20"/>
         <v>2.8340080971659853E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A46" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="52">
+      <c r="A46" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="43">
         <v>280</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="27">
         <f t="shared" si="21"/>
         <v>266.53846153846155</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="10">
         <f t="shared" si="23"/>
         <v>-5.0505050505050386E-2</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="56" t="str">
+      <c r="E46" s="28"/>
+      <c r="F46" s="47" t="str">
         <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_my_tickets</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G46" s="24">
         <f t="shared" si="22"/>
         <v>88.846153846153854</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="13">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
         <v>88</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="11">
         <f t="shared" si="20"/>
         <v>-9.6153846153848033E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="52">
+      <c r="A47" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="43">
         <v>73</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="27">
         <f t="shared" si="21"/>
         <v>69.230769230769226</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="10">
         <f t="shared" si="23"/>
         <v>-5.4444444444444517E-2</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="56" t="str">
+      <c r="E47" s="22"/>
+      <c r="F47" s="47" t="str">
         <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
         <v>removing_ticket</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="24">
         <f t="shared" si="22"/>
         <v>23.076923076923077</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="13">
         <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
         <v>23</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="11">
         <f t="shared" si="20"/>
         <v>-3.3444816053511683E-3</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="52">
+      <c r="A48" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="43">
         <v>326</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="27">
         <f t="shared" si="21"/>
         <v>310.38461538461536</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="10">
         <f t="shared" si="23"/>
         <v>-5.0309789343246702E-2</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="56" t="str">
+      <c r="E48" s="22"/>
+      <c r="F48" s="47" t="str">
         <f>VLOOKUP(A48,Соответствие!A:B,2,FALSE)</f>
         <v>logout</v>
       </c>
-      <c r="G48" s="33">
+      <c r="G48" s="24">
         <f t="shared" si="22"/>
         <v>103.46153846153845</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="13">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
         <v>105</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="11">
         <f t="shared" si="20"/>
         <v>1.4652014652014711E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="52">
+      <c r="A49" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="43">
         <v>97</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="27">
         <f t="shared" si="21"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="10">
         <f t="shared" si="23"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="56" t="str">
+      <c r="E49" s="22"/>
+      <c r="F49" s="47" t="str">
         <f>VLOOKUP(A49,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_registrating_menu</v>
       </c>
-      <c r="G49" s="33">
+      <c r="G49" s="24">
         <f t="shared" si="22"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="13">
         <f>VLOOKUP(F49,SummaryReport!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="11">
         <f t="shared" si="20"/>
         <v>7.4441687344912744E-3</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="52">
+      <c r="A50" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="43">
         <v>97</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="27">
         <f t="shared" si="21"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="10">
         <f t="shared" si="23"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="56" t="str">
+      <c r="E50" s="22"/>
+      <c r="F50" s="47" t="str">
         <f>VLOOKUP(A50,Соответствие!A:B,2,FALSE)</f>
         <v>registrating</v>
       </c>
-      <c r="G50" s="33">
+      <c r="G50" s="24">
         <f t="shared" si="22"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="13">
         <f>VLOOKUP(F50,SummaryReport!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="11">
         <f t="shared" si="20"/>
         <v>7.4441687344912744E-3</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="52">
+      <c r="A51" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="43">
         <v>97</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="27">
         <f t="shared" si="21"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="10">
         <f t="shared" si="23"/>
         <v>-5.0833333333333286E-2</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="56" t="str">
+      <c r="E51" s="22"/>
+      <c r="F51" s="47" t="str">
         <f>VLOOKUP(A51,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_menu</v>
       </c>
-      <c r="G51" s="33">
+      <c r="G51" s="24">
         <f t="shared" si="22"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="13">
         <f>VLOOKUP(F51,SummaryReport!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="11">
         <f t="shared" si="20"/>
         <v>7.4441687344912744E-3</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="53">
+      <c r="A52" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="44">
         <f>SUM(B40:B51)</f>
         <v>2944</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="45">
         <f>SUM(C40:C51)</f>
         <v>2905.0549450549443</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="10">
         <f t="shared" si="23"/>
         <v>-1.3405961567559688E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I53" s="23"/>
+      <c r="I53" s="14"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="30"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4553,7 +4905,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4563,119 +4915,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>73</v>
+      <c r="A1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="str">
+      <c r="A2" s="47" t="str">
         <f>'Автоматизированный расчет'!A40</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="97" t="s">
-        <v>89</v>
+      <c r="B2" s="88" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="str">
+      <c r="A3" s="47" t="str">
         <f>'Автоматизированный расчет'!A41</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="97" t="s">
-        <v>24</v>
+      <c r="B3" s="88" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="str">
+      <c r="A4" s="47" t="str">
         <f>'Автоматизированный расчет'!A42</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="97" t="s">
-        <v>85</v>
+      <c r="B4" s="88" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="str">
+      <c r="A5" s="47" t="str">
         <f>'Автоматизированный расчет'!A43</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="97" t="s">
-        <v>90</v>
+      <c r="B5" s="88" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="str">
+      <c r="A6" s="47" t="str">
         <f>'Автоматизированный расчет'!A44</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="97" t="s">
-        <v>84</v>
+      <c r="B6" s="88" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="str">
+      <c r="A7" s="47" t="str">
         <f>'Автоматизированный расчет'!A45</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="97" t="s">
-        <v>91</v>
+      <c r="B7" s="88" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="str">
+      <c r="A8" s="47" t="str">
         <f>'Автоматизированный расчет'!A46</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="97" t="s">
-        <v>87</v>
+      <c r="B8" s="88" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="str">
+      <c r="A9" s="47" t="str">
         <f>'Автоматизированный расчет'!A47</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>93</v>
+      <c r="B9" s="88" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="str">
+      <c r="A10" s="47" t="str">
         <f>'Автоматизированный расчет'!A48</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="97" t="s">
-        <v>25</v>
+      <c r="B10" s="88" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="str">
+      <c r="A11" s="47" t="str">
         <f>'Автоматизированный расчет'!A49</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="97" t="s">
-        <v>88</v>
+      <c r="B11" s="88" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="str">
+      <c r="A12" s="47" t="str">
         <f>'Автоматизированный расчет'!A50</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="97" t="s">
-        <v>92</v>
+      <c r="B12" s="88" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="str">
+      <c r="A13" s="47" t="str">
         <f>'Автоматизированный расчет'!A51</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="97" t="s">
-        <v>86</v>
+      <c r="B13" s="88" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4701,7 +5053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -4711,1260 +5063,3132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="112" t="s">
+      <c r="A1" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="100">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D2" s="100">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E2" s="100">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F2" s="100">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G2" s="100">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="H2" s="100">
+        <v>88</v>
+      </c>
+      <c r="I2" s="100">
+        <v>0</v>
+      </c>
+      <c r="J2" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="100">
+        <v>0.46</v>
+      </c>
+      <c r="D3" s="100">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E3" s="100">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="F3" s="100">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G3" s="100">
+        <v>1.083</v>
+      </c>
+      <c r="H3" s="100">
+        <v>102</v>
+      </c>
+      <c r="I3" s="100">
+        <v>0</v>
+      </c>
+      <c r="J3" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="100">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D4" s="100">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E4" s="100">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="F4" s="100">
+        <v>0.122</v>
+      </c>
+      <c r="G4" s="100">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="H4" s="100">
+        <v>31</v>
+      </c>
+      <c r="I4" s="100">
+        <v>0</v>
+      </c>
+      <c r="J4" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="B5" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="100">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D5" s="100">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E5" s="100">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="F5" s="100">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G5" s="100">
+        <v>0.98</v>
+      </c>
+      <c r="H5" s="100">
+        <v>88</v>
+      </c>
+      <c r="I5" s="100">
+        <v>0</v>
+      </c>
+      <c r="J5" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="B6" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="100">
+        <v>0.24</v>
+      </c>
+      <c r="D6" s="100">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E6" s="100">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="F6" s="100">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="100">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="H6" s="100">
+        <v>31</v>
+      </c>
+      <c r="I6" s="100">
+        <v>0</v>
+      </c>
+      <c r="J6" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="B7" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="100">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D7" s="100">
+        <v>0.628</v>
+      </c>
+      <c r="E7" s="100">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="F7" s="100">
+        <v>0.157</v>
+      </c>
+      <c r="G7" s="100">
+        <v>0.877</v>
+      </c>
+      <c r="H7" s="100">
+        <v>186</v>
+      </c>
+      <c r="I7" s="100">
+        <v>0</v>
+      </c>
+      <c r="J7" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="B8" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="100">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D8" s="100">
+        <v>0.34</v>
+      </c>
+      <c r="E8" s="100">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F8" s="100">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G8" s="100">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H8" s="100">
+        <v>88</v>
+      </c>
+      <c r="I8" s="100">
+        <v>4</v>
+      </c>
+      <c r="J8" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="100">
+        <v>0.496</v>
+      </c>
+      <c r="D9" s="100">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E9" s="100">
+        <v>1.631</v>
+      </c>
+      <c r="F9" s="100">
+        <v>0.253</v>
+      </c>
+      <c r="G9" s="100">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="H9" s="100">
+        <v>155</v>
+      </c>
+      <c r="I9" s="100">
+        <v>0</v>
+      </c>
+      <c r="J9" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="100">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D10" s="100">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E10" s="100">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F10" s="100">
+        <v>0.121</v>
+      </c>
+      <c r="G10" s="100">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="H10" s="100">
+        <v>105</v>
+      </c>
+      <c r="I10" s="100">
+        <v>0</v>
+      </c>
+      <c r="J10" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="B11" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="100">
+        <v>0.252</v>
+      </c>
+      <c r="D11" s="100">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E11" s="100">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="F11" s="100">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G11" s="100">
+        <v>0.504</v>
+      </c>
+      <c r="H11" s="100">
+        <v>57</v>
+      </c>
+      <c r="I11" s="100">
+        <v>0</v>
+      </c>
+      <c r="J11" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="112" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="112" t="s">
+      <c r="B12" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="100">
+        <v>0.245</v>
+      </c>
+      <c r="D12" s="100">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E12" s="100">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F12" s="100">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12" s="100">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H12" s="100">
+        <v>31</v>
+      </c>
+      <c r="I12" s="100">
+        <v>0</v>
+      </c>
+      <c r="J12" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="100">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D13" s="100">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="E13" s="100">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F13" s="100">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G13" s="100">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="H13" s="100">
+        <v>23</v>
+      </c>
+      <c r="I13" s="100">
+        <v>0</v>
+      </c>
+      <c r="J13" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="100">
+        <v>1.9690000000000001</v>
+      </c>
+      <c r="D14" s="100">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="E14" s="100">
+        <v>3.45</v>
+      </c>
+      <c r="F14" s="100">
+        <v>0.314</v>
+      </c>
+      <c r="G14" s="100">
+        <v>2.617</v>
+      </c>
+      <c r="H14" s="100">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="I14" s="100">
+        <v>0</v>
+      </c>
+      <c r="J14" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="100">
+        <v>1.994</v>
+      </c>
+      <c r="D15" s="100">
+        <v>2.5310000000000001</v>
+      </c>
+      <c r="E15" s="100">
+        <v>3.798</v>
+      </c>
+      <c r="F15" s="100">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="G15" s="100">
+        <v>3.3660000000000001</v>
+      </c>
+      <c r="H15" s="100">
+        <v>25</v>
+      </c>
+      <c r="I15" s="100">
+        <v>0</v>
+      </c>
+      <c r="J15" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="100">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="D16" s="100">
+        <v>2.8780000000000001</v>
+      </c>
+      <c r="E16" s="100">
+        <v>4.5129999999999999</v>
+      </c>
+      <c r="F16" s="100">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G16" s="100">
+        <v>3.222</v>
+      </c>
+      <c r="H16" s="100">
+        <v>23</v>
+      </c>
+      <c r="I16" s="100">
+        <v>0</v>
+      </c>
+      <c r="J16" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="114">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="D2" s="114">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="E2" s="114">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="F2" s="114">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="G2" s="114">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="H2" s="114">
+      <c r="B17" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="100">
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="D17" s="100">
+        <v>3.0390000000000001</v>
+      </c>
+      <c r="E17" s="100">
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="F17" s="100">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G17" s="100">
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="H17" s="100">
+        <v>34</v>
+      </c>
+      <c r="I17" s="100">
+        <v>4</v>
+      </c>
+      <c r="J17" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="100">
+        <v>3.012</v>
+      </c>
+      <c r="D18" s="100">
+        <v>4.1189999999999998</v>
+      </c>
+      <c r="E18" s="100">
+        <v>5.61</v>
+      </c>
+      <c r="F18" s="100">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="G18" s="100">
+        <v>4.8689999999999998</v>
+      </c>
+      <c r="H18" s="100">
+        <v>57</v>
+      </c>
+      <c r="I18" s="100">
+        <v>0</v>
+      </c>
+      <c r="J18" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="114">
+      <c r="B19" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="100">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D19" s="100">
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="E19" s="100">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="F19" s="100">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G19" s="100">
+        <v>2.9420000000000002</v>
+      </c>
+      <c r="H19" s="99">
+        <v>10</v>
+      </c>
+      <c r="I19" s="100">
         <v>0</v>
       </c>
-      <c r="J2" s="114">
+      <c r="J19" s="100">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="114">
-        <v>0.46</v>
-      </c>
-      <c r="D3" s="114">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="E3" s="114">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="F3" s="114">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="G3" s="114">
-        <v>1.083</v>
-      </c>
-      <c r="H3" s="114">
-        <v>102</v>
-      </c>
-      <c r="I3" s="114">
-        <v>0</v>
-      </c>
-      <c r="J3" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="114">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D4" s="114">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="E4" s="114">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="F4" s="114">
-        <v>0.122</v>
-      </c>
-      <c r="G4" s="114">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="H4" s="114">
-        <v>31</v>
-      </c>
-      <c r="I4" s="114">
-        <v>0</v>
-      </c>
-      <c r="J4" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="114">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D5" s="114">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="E5" s="114">
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="F5" s="114">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="G5" s="114">
-        <v>0.98</v>
-      </c>
-      <c r="H5" s="114">
-        <v>88</v>
-      </c>
-      <c r="I5" s="114">
-        <v>0</v>
-      </c>
-      <c r="J5" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="114">
-        <v>0.24</v>
-      </c>
-      <c r="D6" s="114">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="E6" s="114">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="F6" s="114">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G6" s="114">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="H6" s="114">
-        <v>31</v>
-      </c>
-      <c r="I6" s="114">
-        <v>0</v>
-      </c>
-      <c r="J6" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="114">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="D7" s="114">
-        <v>0.628</v>
-      </c>
-      <c r="E7" s="114">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="F7" s="114">
-        <v>0.157</v>
-      </c>
-      <c r="G7" s="114">
-        <v>0.877</v>
-      </c>
-      <c r="H7" s="114">
-        <v>186</v>
-      </c>
-      <c r="I7" s="114">
-        <v>0</v>
-      </c>
-      <c r="J7" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="114">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="D8" s="114">
-        <v>0.34</v>
-      </c>
-      <c r="E8" s="114">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="F8" s="114">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G8" s="114">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="H8" s="114">
-        <v>88</v>
-      </c>
-      <c r="I8" s="114">
-        <v>4</v>
-      </c>
-      <c r="J8" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="114">
-        <v>0.496</v>
-      </c>
-      <c r="D9" s="114">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="E9" s="114">
-        <v>1.631</v>
-      </c>
-      <c r="F9" s="114">
-        <v>0.253</v>
-      </c>
-      <c r="G9" s="114">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="H9" s="114">
-        <v>155</v>
-      </c>
-      <c r="I9" s="114">
-        <v>0</v>
-      </c>
-      <c r="J9" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="114">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="D10" s="114">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="E10" s="114">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="F10" s="114">
-        <v>0.121</v>
-      </c>
-      <c r="G10" s="114">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="H10" s="114">
-        <v>105</v>
-      </c>
-      <c r="I10" s="114">
-        <v>0</v>
-      </c>
-      <c r="J10" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="114">
-        <v>0.252</v>
-      </c>
-      <c r="D11" s="114">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="E11" s="114">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="F11" s="114">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G11" s="114">
-        <v>0.504</v>
-      </c>
-      <c r="H11" s="114">
-        <v>57</v>
-      </c>
-      <c r="I11" s="114">
-        <v>0</v>
-      </c>
-      <c r="J11" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="114">
-        <v>0.245</v>
-      </c>
-      <c r="D12" s="114">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="E12" s="114">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="F12" s="114">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G12" s="114">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="H12" s="114">
-        <v>31</v>
-      </c>
-      <c r="I12" s="114">
-        <v>0</v>
-      </c>
-      <c r="J12" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="114">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D13" s="114">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="E13" s="114">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="F13" s="114">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G13" s="114">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="H13" s="114">
-        <v>23</v>
-      </c>
-      <c r="I13" s="114">
-        <v>0</v>
-      </c>
-      <c r="J13" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="114">
-        <v>1.9690000000000001</v>
-      </c>
-      <c r="D14" s="114">
-        <v>2.3250000000000002</v>
-      </c>
-      <c r="E14" s="114">
-        <v>3.45</v>
-      </c>
-      <c r="F14" s="114">
-        <v>0.314</v>
-      </c>
-      <c r="G14" s="114">
-        <v>2.617</v>
-      </c>
-      <c r="H14" s="114">
-        <v>30</v>
-      </c>
-      <c r="I14" s="114">
-        <v>0</v>
-      </c>
-      <c r="J14" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="114">
-        <v>1.994</v>
-      </c>
-      <c r="D15" s="114">
-        <v>2.5310000000000001</v>
-      </c>
-      <c r="E15" s="114">
-        <v>3.798</v>
-      </c>
-      <c r="F15" s="114">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="G15" s="114">
-        <v>3.3660000000000001</v>
-      </c>
-      <c r="H15" s="114">
-        <v>25</v>
-      </c>
-      <c r="I15" s="114">
-        <v>0</v>
-      </c>
-      <c r="J15" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="114">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="D16" s="114">
-        <v>2.8780000000000001</v>
-      </c>
-      <c r="E16" s="114">
-        <v>4.5129999999999999</v>
-      </c>
-      <c r="F16" s="114">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="G16" s="114">
-        <v>3.222</v>
-      </c>
-      <c r="H16" s="114">
-        <v>23</v>
-      </c>
-      <c r="I16" s="114">
-        <v>0</v>
-      </c>
-      <c r="J16" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="114">
-        <v>2.3380000000000001</v>
-      </c>
-      <c r="D17" s="114">
-        <v>3.0390000000000001</v>
-      </c>
-      <c r="E17" s="114">
-        <v>4.7709999999999999</v>
-      </c>
-      <c r="F17" s="114">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="G17" s="114">
-        <v>3.6869999999999998</v>
-      </c>
-      <c r="H17" s="114">
-        <v>34</v>
-      </c>
-      <c r="I17" s="114">
-        <v>4</v>
-      </c>
-      <c r="J17" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="114">
-        <v>3.012</v>
-      </c>
-      <c r="D18" s="114">
-        <v>4.1189999999999998</v>
-      </c>
-      <c r="E18" s="114">
-        <v>5.61</v>
-      </c>
-      <c r="F18" s="114">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="G18" s="114">
-        <v>4.8689999999999998</v>
-      </c>
-      <c r="H18" s="114">
-        <v>57</v>
-      </c>
-      <c r="I18" s="114">
-        <v>0</v>
-      </c>
-      <c r="J18" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="114">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="D19" s="114">
-        <v>2.5419999999999998</v>
-      </c>
-      <c r="E19" s="114">
-        <v>3.1019999999999999</v>
-      </c>
-      <c r="F19" s="114">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="G19" s="114">
-        <v>2.9420000000000002</v>
-      </c>
-      <c r="H19" s="113">
-        <v>10</v>
-      </c>
-      <c r="I19" s="114">
-        <v>0</v>
-      </c>
-      <c r="J19" s="114">
-        <v>0</v>
-      </c>
-    </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
+      <c r="A20" s="97"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="106"/>
+      <c r="A21" s="97"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="106"/>
+      <c r="A22" s="97"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" xr:uid="{1A2D7DFA-87BB-42B9-ABFA-6BACBB5C02D5}"/>
-    <hyperlink ref="A3" xr:uid="{B2E5DEFF-90B8-4977-AFDE-5D7F9B4C3356}"/>
-    <hyperlink ref="A4" xr:uid="{668ABCB5-D5C9-4DB2-A1F4-CEB6A3DD78D0}"/>
-    <hyperlink ref="A5" xr:uid="{AE7584C7-88D4-4D98-8392-FCC9F5689AE5}"/>
-    <hyperlink ref="A6" xr:uid="{5FE40E51-9D1E-44A7-9671-9514C111D8C7}"/>
-    <hyperlink ref="A7" xr:uid="{AABA0309-10A0-469D-889D-36328867D41D}"/>
-    <hyperlink ref="A8" xr:uid="{38E6A321-8944-4655-AE29-A41440ABB56B}"/>
-    <hyperlink ref="A9" xr:uid="{A1988DA0-742C-47C4-8591-0E44D754F96B}"/>
-    <hyperlink ref="A10" xr:uid="{DF91D120-E7AD-418B-8352-00C658B1CA26}"/>
-    <hyperlink ref="A11" xr:uid="{F65D6814-60CE-4A6E-9A2F-F0CB06C90CD2}"/>
-    <hyperlink ref="A12" xr:uid="{80D30D61-21EE-464D-A48F-629698591DE4}"/>
-    <hyperlink ref="A13" xr:uid="{213A7945-2AFA-4DC7-8B59-57775DB07BB3}"/>
-    <hyperlink ref="A14" xr:uid="{68DBDB7C-6104-4939-8923-31F2EBDF8401}"/>
-    <hyperlink ref="A15" xr:uid="{08D15DA6-6AC2-4660-8979-0C91045A0077}"/>
-    <hyperlink ref="A16" xr:uid="{ABCE5691-940D-4014-B9B8-DBC7F4425BB1}"/>
-    <hyperlink ref="A17" xr:uid="{615F7BB5-D6FA-4371-8AB1-BB736AEB0B9A}"/>
-    <hyperlink ref="A18" xr:uid="{D706BAE4-68E1-4FCC-A401-02E18B946686}"/>
-    <hyperlink ref="A19" xr:uid="{1FEE22C1-7CA4-43F2-BD62-7EB40247BAF6}"/>
+    <hyperlink ref="A2" display="choose_ticket" xr:uid="{1A2D7DFA-87BB-42B9-ABFA-6BACBB5C02D5}"/>
+    <hyperlink ref="A3" display="go_to_flights" xr:uid="{B2E5DEFF-90B8-4977-AFDE-5D7F9B4C3356}"/>
+    <hyperlink ref="A4" display="go_to_menu" xr:uid="{668ABCB5-D5C9-4DB2-A1F4-CEB6A3DD78D0}"/>
+    <hyperlink ref="A5" display="go_to_my_tickets" xr:uid="{AE7584C7-88D4-4D98-8392-FCC9F5689AE5}"/>
+    <hyperlink ref="A6" display="go_to_registrating_menu" xr:uid="{5FE40E51-9D1E-44A7-9671-9514C111D8C7}"/>
+    <hyperlink ref="A7" display="go_to_welcome_page" xr:uid="{AABA0309-10A0-469D-889D-36328867D41D}"/>
+    <hyperlink ref="A8" display="input_data_to_find_tickets" xr:uid="{38E6A321-8944-4655-AE29-A41440ABB56B}"/>
+    <hyperlink ref="A9" display="login" xr:uid="{A1988DA0-742C-47C4-8591-0E44D754F96B}"/>
+    <hyperlink ref="A10" display="logout" xr:uid="{DF91D120-E7AD-418B-8352-00C658B1CA26}"/>
+    <hyperlink ref="A11" display="payment" xr:uid="{F65D6814-60CE-4A6E-9A2F-F0CB06C90CD2}"/>
+    <hyperlink ref="A12" display="registrating" xr:uid="{80D30D61-21EE-464D-A48F-629698591DE4}"/>
+    <hyperlink ref="A13" display="removing_ticket" xr:uid="{213A7945-2AFA-4DC7-8B59-57775DB07BB3}"/>
+    <hyperlink ref="A14" display="UC1_RegisterUser" xr:uid="{68DBDB7C-6104-4939-8923-31F2EBDF8401}"/>
+    <hyperlink ref="A15" display="UC2_CheckMyTickets" xr:uid="{08D15DA6-6AC2-4660-8979-0C91045A0077}"/>
+    <hyperlink ref="A16" display="UC3_RemoveTicket" xr:uid="{ABCE5691-940D-4014-B9B8-DBC7F4425BB1}"/>
+    <hyperlink ref="A17" display="UC4_SearchTickets" xr:uid="{615F7BB5-D6FA-4371-8AB1-BB736AEB0B9A}"/>
+    <hyperlink ref="A18" display="UC5_BuyTicket" xr:uid="{D706BAE4-68E1-4FCC-A401-02E18B946686}"/>
+    <hyperlink ref="A19" display="UC6_Login" xr:uid="{1FEE22C1-7CA4-43F2-BD62-7EB40247BAF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C9:O44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="C9:P58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="4" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="1.44140625" customWidth="1"/>
-    <col min="12" max="12" width="40.33203125" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" customWidth="1"/>
+    <col min="12" max="12" width="30.5546875" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" customWidth="1"/>
     <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
+      <c r="E9" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
     </row>
     <row r="11" spans="5:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="113">
+        <v>179</v>
+      </c>
+      <c r="H12" s="115">
+        <v>186</v>
+      </c>
+      <c r="I12" s="116">
+        <f>1-G12/H12</f>
+        <v>3.7634408602150504E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="4">
-        <v>368</v>
-      </c>
-      <c r="H12" s="3">
-        <f>121*3</f>
-        <v>363</v>
-      </c>
-      <c r="I12" s="5">
-        <f>1-G12/H12</f>
-        <v>-1.377410468319562E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="E13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="4">
-        <v>251</v>
-      </c>
-      <c r="H13" s="3">
-        <f>82*3</f>
-        <v>246</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="113">
+        <v>148</v>
+      </c>
+      <c r="H13" s="115">
+        <v>155</v>
+      </c>
+      <c r="I13" s="116">
         <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>4.5161290322580649E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="4">
-        <v>251</v>
-      </c>
-      <c r="H14" s="3">
-        <f>82*3</f>
-        <v>246</v>
-      </c>
-      <c r="I14" s="5">
+        <v>56</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="113">
+        <v>100</v>
+      </c>
+      <c r="H14" s="115">
+        <v>102</v>
+      </c>
+      <c r="I14" s="117">
         <f t="shared" si="0"/>
-        <v>-2.0325203252032464E-2</v>
+        <v>1.9607843137254943E-2</v>
       </c>
     </row>
     <row r="15" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="113">
+        <v>90</v>
+      </c>
+      <c r="H15" s="115">
+        <v>88</v>
+      </c>
+      <c r="I15" s="118">
+        <f t="shared" si="0"/>
+        <v>-2.2727272727272707E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="113">
+        <v>90</v>
+      </c>
+      <c r="H16" s="113">
+        <v>88</v>
+      </c>
+      <c r="I16" s="116">
+        <f t="shared" si="0"/>
+        <v>-2.2727272727272707E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="113">
+        <v>55</v>
+      </c>
+      <c r="H17" s="115">
+        <v>57</v>
+      </c>
+      <c r="I17" s="116">
+        <f t="shared" si="0"/>
+        <v>3.5087719298245612E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="113">
+        <v>89</v>
+      </c>
+      <c r="H18" s="115">
+        <v>88</v>
+      </c>
+      <c r="I18" s="117">
+        <f t="shared" si="0"/>
+        <v>-1.1363636363636465E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="113">
+        <v>23</v>
+      </c>
+      <c r="H19" s="115">
+        <v>23</v>
+      </c>
+      <c r="I19" s="119">
+        <f t="shared" ref="I19:I23" si="1">1-G19/H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="113">
+        <v>103</v>
+      </c>
+      <c r="H20" s="115">
+        <v>105</v>
+      </c>
+      <c r="I20" s="117">
+        <f t="shared" si="1"/>
+        <v>1.9047619047619091E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="113">
+        <v>31</v>
+      </c>
+      <c r="H21" s="115">
+        <v>31</v>
+      </c>
+      <c r="I21" s="119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="113">
+        <v>31</v>
+      </c>
+      <c r="H22" s="115">
+        <v>31</v>
+      </c>
+      <c r="I22" s="119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="113">
+        <v>31</v>
+      </c>
+      <c r="H23" s="115">
+        <v>31</v>
+      </c>
+      <c r="I23" s="119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E25" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" s="47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="L26" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="9">
+        <v>5</v>
+      </c>
+      <c r="N26" s="26">
+        <v>30</v>
+      </c>
+      <c r="O26" s="27">
+        <f>M26+N26</f>
+        <v>35</v>
+      </c>
+      <c r="P26" s="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E27" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="L27" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="9">
+        <v>5</v>
+      </c>
+      <c r="N27" s="26">
+        <v>20.0014</v>
+      </c>
+      <c r="O27" s="27">
+        <f t="shared" ref="O27:O31" si="2">M27+N27</f>
+        <v>25.0014</v>
+      </c>
+      <c r="P27" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="L28" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="9">
+        <v>5</v>
+      </c>
+      <c r="N28" s="26">
+        <v>20</v>
+      </c>
+      <c r="O28" s="27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="P28" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="9">
+        <v>5</v>
+      </c>
+      <c r="N29" s="26">
+        <v>20</v>
+      </c>
+      <c r="O29" s="27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="P29" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="5:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="113">
+        <v>911</v>
+      </c>
+      <c r="H30" s="114">
+        <v>914</v>
+      </c>
+      <c r="I30" s="119">
+        <f>1-G30/H30</f>
+        <v>3.2822757111596879E-3</v>
+      </c>
+      <c r="L30" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="9">
+        <v>3</v>
+      </c>
+      <c r="N30" s="26">
+        <v>15</v>
+      </c>
+      <c r="O30" s="27">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P30" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="113">
+        <v>799</v>
+      </c>
+      <c r="H31" s="114">
+        <v>801</v>
+      </c>
+      <c r="I31" s="119">
+        <f t="shared" ref="I31:I36" si="3">1-G31/H31</f>
+        <v>2.4968789013732895E-3</v>
+      </c>
+      <c r="L31" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" s="95">
+        <v>4</v>
+      </c>
+      <c r="N31" s="96">
+        <v>15</v>
+      </c>
+      <c r="O31" s="27">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="G15" s="4">
-        <v>175</v>
-      </c>
-      <c r="H15" s="3">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="0"/>
-        <v>-4.1666666666666741E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4">
-        <v>159</v>
-      </c>
-      <c r="H16" s="4">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>5.3571428571428603E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="P31" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="113">
+        <v>542</v>
+      </c>
+      <c r="H32" s="114">
+        <v>546</v>
+      </c>
+      <c r="I32" s="119">
+        <f t="shared" si="3"/>
+        <v>7.3260073260073E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="113">
+        <v>482</v>
+      </c>
+      <c r="H33" s="114">
+        <v>459</v>
+      </c>
+      <c r="I33" s="118">
+        <f t="shared" si="3"/>
+        <v>-5.0108932461873534E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="113">
+        <v>482</v>
+      </c>
+      <c r="H34" s="114">
+        <v>455</v>
+      </c>
+      <c r="I34" s="116">
+        <f t="shared" si="3"/>
+        <v>-5.9340659340659352E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="113">
+        <v>257</v>
+      </c>
+      <c r="H35" s="114">
+        <v>258</v>
+      </c>
+      <c r="I35" s="119">
+        <f t="shared" si="3"/>
+        <v>3.8759689922480689E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="113">
+        <v>429</v>
+      </c>
+      <c r="H36" s="114">
+        <v>427</v>
+      </c>
+      <c r="I36" s="119">
+        <f t="shared" si="3"/>
+        <v>-4.6838407494145251E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="113">
+        <v>113</v>
+      </c>
+      <c r="H37" s="114">
+        <v>107</v>
+      </c>
+      <c r="I37" s="116">
+        <f>1-G37/H37</f>
+        <v>-5.6074766355140193E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="113">
+        <v>514</v>
+      </c>
+      <c r="H38" s="114">
+        <v>507</v>
+      </c>
+      <c r="I38" s="119">
+        <f t="shared" ref="I38:I41" si="4">1-G38/H38</f>
+        <v>-1.3806706114398493E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="113">
+        <v>113</v>
+      </c>
+      <c r="H39" s="114">
+        <v>114</v>
+      </c>
+      <c r="I39" s="119">
+        <f t="shared" si="4"/>
+        <v>8.7719298245614308E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="113">
+        <v>113</v>
+      </c>
+      <c r="H40" s="114">
+        <v>114</v>
+      </c>
+      <c r="I40" s="120">
+        <f t="shared" si="4"/>
+        <v>8.7719298245614308E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="E41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="3">
-        <f>25*3</f>
+      <c r="G41" s="113">
+        <v>113</v>
+      </c>
+      <c r="H41" s="114">
+        <v>113</v>
+      </c>
+      <c r="I41" s="119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E42" s="106"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="110"/>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E44" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+    </row>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="113">
+        <v>2733</v>
+      </c>
+      <c r="H47" s="114">
+        <v>2731</v>
+      </c>
+      <c r="I47" s="119">
+        <f>1-G47/H47</f>
+        <v>-7.3233247894544107E-4</v>
+      </c>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+    </row>
+    <row r="48" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="113">
+        <v>2396</v>
+      </c>
+      <c r="H48" s="114">
+        <v>2393</v>
+      </c>
+      <c r="I48" s="119">
+        <f t="shared" ref="I48:I58" si="5">1-G48/H48</f>
+        <v>-1.253656498119593E-3</v>
+      </c>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="113">
+        <v>1626</v>
+      </c>
+      <c r="H49" s="114">
+        <v>1627</v>
+      </c>
+      <c r="I49" s="119">
+        <f t="shared" si="5"/>
+        <v>6.1462814996926518E-4</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="113">
+        <v>1446</v>
+      </c>
+      <c r="H50" s="114">
+        <v>1381</v>
+      </c>
+      <c r="I50" s="116">
+        <f t="shared" si="5"/>
+        <v>-4.7067342505430876E-2</v>
+      </c>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+    </row>
+    <row r="51" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="113">
+        <v>1446</v>
+      </c>
+      <c r="H51" s="114">
+        <v>1380</v>
+      </c>
+      <c r="I51" s="116">
+        <f t="shared" si="5"/>
+        <v>-4.7826086956521685E-2</v>
+      </c>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="113">
+        <v>771</v>
+      </c>
+      <c r="H52" s="114">
+        <v>772</v>
+      </c>
+      <c r="I52" s="119">
+        <f t="shared" si="5"/>
+        <v>1.2953367875647714E-3</v>
+      </c>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="113">
+        <v>1287</v>
+      </c>
+      <c r="H53" s="114">
+        <v>1286</v>
+      </c>
+      <c r="I53" s="119">
+        <f t="shared" si="5"/>
+        <v>-7.7760497667189732E-4</v>
+      </c>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="113">
+        <v>338</v>
+      </c>
+      <c r="H54" s="114">
+        <v>319</v>
+      </c>
+      <c r="I54" s="116">
+        <f t="shared" si="5"/>
+        <v>-5.9561128526645746E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="113">
+        <v>1541</v>
+      </c>
+      <c r="H55" s="114">
+        <v>1524</v>
+      </c>
+      <c r="I55" s="117">
+        <f t="shared" si="5"/>
+        <v>-1.1154855643044526E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666616E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="4">
-        <v>326</v>
-      </c>
-      <c r="H18" s="3">
-        <f>104*3</f>
-        <v>312</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.4871794871794934E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E26" s="13" t="s">
+      <c r="G56" s="113">
+        <v>338</v>
+      </c>
+      <c r="H56" s="114">
+        <v>337</v>
+      </c>
+      <c r="I56" s="119">
+        <f t="shared" si="5"/>
+        <v>-2.9673590504450953E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="113">
+        <v>338</v>
+      </c>
+      <c r="H57" s="114">
+        <v>338</v>
+      </c>
+      <c r="I57" s="119">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="10">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H26" s="9">
-        <f>721*3</f>
-        <v>2163</v>
-      </c>
-      <c r="I26" s="11">
-        <f>1-G26/H26</f>
-        <v>0.14932963476652794</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H27" s="9">
-        <f>3*464</f>
-        <v>1392</v>
-      </c>
-      <c r="I27" s="11">
-        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
-        <v>9.8419540229885083E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H28" s="9">
-        <f>3*462</f>
-        <v>1386</v>
-      </c>
-      <c r="I28" s="11">
-        <f t="shared" si="1"/>
-        <v>9.4516594516594554E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E29" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H29" s="9">
-        <f>3*314</f>
-        <v>942</v>
-      </c>
-      <c r="I29" s="7">
-        <f t="shared" si="1"/>
-        <v>7.1125265392781301E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H30" s="9">
-        <f>3*330</f>
-        <v>990</v>
-      </c>
-      <c r="I30" s="11">
-        <f t="shared" si="1"/>
-        <v>0.19696969696969702</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H31" s="9">
-        <f>3*141</f>
-        <v>423</v>
-      </c>
-      <c r="I31" s="11">
-        <f t="shared" si="1"/>
-        <v>0.13711583924349879</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H32" s="9">
-        <f>3*599</f>
-        <v>1797</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="1"/>
-        <v>9.2932665553700611E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E35" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="10">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H38" s="9">
-        <v>2109</v>
-      </c>
-      <c r="I38" s="11">
-        <f>1-G38/H38</f>
-        <v>0.12754860123281175</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="14">
-        <v>377</v>
-      </c>
-      <c r="N38" s="14">
-        <v>27</v>
-      </c>
-      <c r="O38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H39" s="14">
-        <v>1315</v>
-      </c>
-      <c r="I39" s="11">
-        <f t="shared" ref="I39:I44" si="2">1-G39/H39</f>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="14">
-        <v>998</v>
-      </c>
-      <c r="N39" s="14">
-        <v>1</v>
-      </c>
-      <c r="O39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E40" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1315</v>
-      </c>
-      <c r="I40" s="11">
-        <f t="shared" si="2"/>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N40" s="14">
-        <v>0</v>
-      </c>
-      <c r="O40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H41" s="14">
-        <v>924</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3030303030302983E-2</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" s="14">
-        <v>139</v>
-      </c>
-      <c r="O41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E42" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H42" s="14">
-        <v>998</v>
-      </c>
-      <c r="I42" s="11">
-        <f t="shared" si="2"/>
-        <v>0.20340681362725455</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N42" s="14">
-        <v>1</v>
-      </c>
-      <c r="O42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H43" s="14">
-        <v>404</v>
-      </c>
-      <c r="I43" s="11">
-        <f t="shared" si="2"/>
-        <v>9.6534653465346509E-2</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M43" s="14">
-        <v>924</v>
-      </c>
-      <c r="N43" s="14">
-        <v>0</v>
-      </c>
-      <c r="O43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H44" s="9">
-        <v>1675</v>
-      </c>
-      <c r="I44" s="11">
-        <f t="shared" si="2"/>
-        <v>2.68656716417911E-2</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="14">
-        <v>0</v>
-      </c>
-      <c r="O44" s="14">
+    </row>
+    <row r="58" spans="5:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="E58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="113">
+        <v>338</v>
+      </c>
+      <c r="H58" s="114">
+        <v>338</v>
+      </c>
+      <c r="I58" s="119">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E44:I44"/>
     <mergeCell ref="E9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC38FEA-6D6C-40B9-B0C9-8389B3864C9D}">
+  <dimension ref="C1:I92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C1" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5</v>
+      </c>
+      <c r="E2" s="26">
+        <v>30</v>
+      </c>
+      <c r="F2" s="27">
+        <f>D2+E2</f>
+        <v>35</v>
+      </c>
+      <c r="G2" s="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="26">
+        <v>20.0014</v>
+      </c>
+      <c r="F3" s="27">
+        <f t="shared" ref="F3:F7" si="0">D3+E3</f>
+        <v>25.0014</v>
+      </c>
+      <c r="G3" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="26">
+        <v>20</v>
+      </c>
+      <c r="F4" s="27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G4" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="26">
+        <v>20</v>
+      </c>
+      <c r="F5" s="27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G5" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="26">
+        <v>15</v>
+      </c>
+      <c r="F6" s="27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G6" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="95">
+        <v>4</v>
+      </c>
+      <c r="E7" s="96">
+        <v>15</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G7" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="I10" s="124" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="113">
+        <v>304</v>
+      </c>
+      <c r="F13" s="114">
+        <v>323</v>
+      </c>
+      <c r="G13" s="116">
+        <f>1-E13/F13</f>
+        <v>5.8823529411764719E-2</v>
+      </c>
+      <c r="I13" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="113">
+        <v>266</v>
+      </c>
+      <c r="F14" s="114">
+        <v>281</v>
+      </c>
+      <c r="G14" s="116">
+        <f t="shared" ref="G14:G19" si="1">1-E14/F14</f>
+        <v>5.3380782918149516E-2</v>
+      </c>
+      <c r="I14" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="113">
+        <v>181</v>
+      </c>
+      <c r="F15" s="114">
+        <v>187</v>
+      </c>
+      <c r="G15" s="116">
+        <f t="shared" si="1"/>
+        <v>3.208556149732622E-2</v>
+      </c>
+      <c r="I15" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="113">
+        <v>161</v>
+      </c>
+      <c r="F16" s="114">
+        <v>155</v>
+      </c>
+      <c r="G16" s="118">
+        <f t="shared" si="1"/>
+        <v>-3.8709677419354938E-2</v>
+      </c>
+      <c r="I16" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="113">
+        <v>161</v>
+      </c>
+      <c r="F17" s="114">
+        <v>157</v>
+      </c>
+      <c r="G17" s="116">
+        <f t="shared" si="1"/>
+        <v>-2.5477707006369421E-2</v>
+      </c>
+      <c r="I17" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="113">
+        <v>86</v>
+      </c>
+      <c r="F18" s="114">
+        <v>90</v>
+      </c>
+      <c r="G18" s="116">
+        <f t="shared" si="1"/>
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="I18" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="113">
+        <v>143</v>
+      </c>
+      <c r="F19" s="114">
+        <v>150</v>
+      </c>
+      <c r="G19" s="116">
+        <f t="shared" si="1"/>
+        <v>4.6666666666666634E-2</v>
+      </c>
+      <c r="I19" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="113">
+        <v>38</v>
+      </c>
+      <c r="F20" s="114">
+        <v>38</v>
+      </c>
+      <c r="G20" s="119">
+        <f>1-E20/F20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="113">
+        <v>171</v>
+      </c>
+      <c r="F21" s="114">
+        <v>181</v>
+      </c>
+      <c r="G21" s="116">
+        <f t="shared" ref="G21:G24" si="2">1-E21/F21</f>
+        <v>5.5248618784530357E-2</v>
+      </c>
+      <c r="I21" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="113">
+        <v>38</v>
+      </c>
+      <c r="F22" s="114">
+        <v>40</v>
+      </c>
+      <c r="G22" s="116">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="I22" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="113">
+        <v>38</v>
+      </c>
+      <c r="F23" s="114">
+        <v>40</v>
+      </c>
+      <c r="G23" s="118">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="I23" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="113">
+        <v>38</v>
+      </c>
+      <c r="F24" s="114">
+        <v>39</v>
+      </c>
+      <c r="G24" s="116">
+        <f t="shared" si="2"/>
+        <v>2.5641025641025661E-2</v>
+      </c>
+      <c r="I24" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="I27" s="124" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="113">
+        <v>607</v>
+      </c>
+      <c r="F30" s="114">
+        <v>607</v>
+      </c>
+      <c r="G30" s="119">
+        <f>1-E30/F30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="113">
+        <v>532</v>
+      </c>
+      <c r="F31" s="114">
+        <v>533</v>
+      </c>
+      <c r="G31" s="119">
+        <f t="shared" ref="G31:G36" si="3">1-E31/F31</f>
+        <v>1.8761726078799779E-3</v>
+      </c>
+      <c r="I31" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="113">
+        <v>361</v>
+      </c>
+      <c r="F32" s="114">
+        <v>361</v>
+      </c>
+      <c r="G32" s="119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="113">
+        <v>321</v>
+      </c>
+      <c r="F33" s="114">
+        <v>306</v>
+      </c>
+      <c r="G33" s="118">
+        <f t="shared" si="3"/>
+        <v>-4.9019607843137303E-2</v>
+      </c>
+      <c r="I33" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="113">
+        <v>321</v>
+      </c>
+      <c r="F34" s="114">
+        <v>305</v>
+      </c>
+      <c r="G34" s="116">
+        <f t="shared" si="3"/>
+        <v>-5.2459016393442637E-2</v>
+      </c>
+      <c r="I34" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="113">
+        <v>171</v>
+      </c>
+      <c r="F35" s="114">
+        <v>170</v>
+      </c>
+      <c r="G35" s="119">
+        <f t="shared" si="3"/>
+        <v>-5.8823529411764497E-3</v>
+      </c>
+      <c r="I35" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="113">
+        <v>286</v>
+      </c>
+      <c r="F36" s="114">
+        <v>283</v>
+      </c>
+      <c r="G36" s="119">
+        <f t="shared" si="3"/>
+        <v>-1.0600706713780994E-2</v>
+      </c>
+      <c r="I36" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="113">
+        <v>75</v>
+      </c>
+      <c r="F37" s="114">
+        <v>72</v>
+      </c>
+      <c r="G37" s="116">
+        <f>1-E37/F37</f>
+        <v>-4.1666666666666741E-2</v>
+      </c>
+      <c r="I37" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="113">
+        <v>342</v>
+      </c>
+      <c r="F38" s="114">
+        <v>336</v>
+      </c>
+      <c r="G38" s="119">
+        <f t="shared" ref="G38:G41" si="4">1-E38/F38</f>
+        <v>-1.7857142857142794E-2</v>
+      </c>
+      <c r="I38" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="113">
+        <v>75</v>
+      </c>
+      <c r="F39" s="114">
+        <v>75</v>
+      </c>
+      <c r="G39" s="119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="113">
+        <v>75</v>
+      </c>
+      <c r="F40" s="114">
+        <v>74</v>
+      </c>
+      <c r="G40" s="120">
+        <f t="shared" si="4"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+      <c r="I40" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="113">
+        <v>75</v>
+      </c>
+      <c r="F41" s="114">
+        <v>74</v>
+      </c>
+      <c r="G41" s="119">
+        <f t="shared" si="4"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+      <c r="I41" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C44" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="I44" s="124" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C46" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="113">
+        <v>911</v>
+      </c>
+      <c r="F47" s="113">
+        <v>914</v>
+      </c>
+      <c r="G47" s="119">
+        <f>1-E47/F47</f>
+        <v>3.2822757111596879E-3</v>
+      </c>
+      <c r="I47" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="113">
+        <v>799</v>
+      </c>
+      <c r="F48" s="113">
+        <v>801</v>
+      </c>
+      <c r="G48" s="119">
+        <f>1-E48/F48</f>
+        <v>2.4968789013732895E-3</v>
+      </c>
+      <c r="I48" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="113">
+        <v>542</v>
+      </c>
+      <c r="F49" s="113">
+        <v>546</v>
+      </c>
+      <c r="G49" s="119">
+        <f>1-E49/F49</f>
+        <v>7.3260073260073E-3</v>
+      </c>
+      <c r="I49" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="113">
+        <v>482</v>
+      </c>
+      <c r="F50" s="113">
+        <v>459</v>
+      </c>
+      <c r="G50" s="118">
+        <f>1-E50/F50</f>
+        <v>-5.0108932461873534E-2</v>
+      </c>
+      <c r="I50" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="113">
+        <v>482</v>
+      </c>
+      <c r="F51" s="113">
+        <v>455</v>
+      </c>
+      <c r="G51" s="116">
+        <f>1-E51/F51</f>
+        <v>-5.9340659340659352E-2</v>
+      </c>
+      <c r="I51" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="113">
+        <v>257</v>
+      </c>
+      <c r="F52" s="113">
+        <v>258</v>
+      </c>
+      <c r="G52" s="119">
+        <f>1-E52/F52</f>
+        <v>3.8759689922480689E-3</v>
+      </c>
+      <c r="I52" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="113">
+        <v>429</v>
+      </c>
+      <c r="F53" s="113">
+        <v>427</v>
+      </c>
+      <c r="G53" s="119">
+        <f>1-E53/F53</f>
+        <v>-4.6838407494145251E-3</v>
+      </c>
+      <c r="I53" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="113">
+        <v>113</v>
+      </c>
+      <c r="F54" s="113">
+        <v>107</v>
+      </c>
+      <c r="G54" s="116">
+        <f>1-E54/F54</f>
+        <v>-5.6074766355140193E-2</v>
+      </c>
+      <c r="I54" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="113">
+        <v>514</v>
+      </c>
+      <c r="F55" s="113">
+        <v>507</v>
+      </c>
+      <c r="G55" s="119">
+        <f>1-E55/F55</f>
+        <v>-1.3806706114398493E-2</v>
+      </c>
+      <c r="I55" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="113">
+        <v>113</v>
+      </c>
+      <c r="F56" s="113">
+        <v>114</v>
+      </c>
+      <c r="G56" s="119">
+        <f>1-E56/F56</f>
+        <v>8.7719298245614308E-3</v>
+      </c>
+      <c r="I56" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="113">
+        <v>113</v>
+      </c>
+      <c r="F57" s="113">
+        <v>114</v>
+      </c>
+      <c r="G57" s="120">
+        <f>1-E57/F57</f>
+        <v>8.7719298245614308E-3</v>
+      </c>
+      <c r="I57" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="113">
+        <v>113</v>
+      </c>
+      <c r="F58" s="113">
+        <v>113</v>
+      </c>
+      <c r="G58" s="119">
+        <f>1-E58/F58</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G59" s="125"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C61" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
+      <c r="I61" s="124" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C63" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="113">
+        <v>1215</v>
+      </c>
+      <c r="F64" s="114">
+        <v>1201</v>
+      </c>
+      <c r="G64" s="119">
+        <f>1-E64/F64</f>
+        <v>-1.1656952539550458E-2</v>
+      </c>
+      <c r="I64" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="113">
+        <v>1065</v>
+      </c>
+      <c r="F65" s="114">
+        <v>1048</v>
+      </c>
+      <c r="G65" s="119">
+        <f t="shared" ref="G65:G70" si="5">1-E65/F65</f>
+        <v>-1.6221374045801484E-2</v>
+      </c>
+      <c r="I65" s="127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="113">
+        <v>723</v>
+      </c>
+      <c r="F66" s="114">
+        <v>716</v>
+      </c>
+      <c r="G66" s="119">
+        <f t="shared" si="5"/>
+        <v>-9.7765363128492488E-3</v>
+      </c>
+      <c r="I66" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="113">
+        <v>643</v>
+      </c>
+      <c r="F67" s="114">
+        <v>609</v>
+      </c>
+      <c r="G67" s="118">
+        <f t="shared" si="5"/>
+        <v>-5.5829228243021278E-2</v>
+      </c>
+      <c r="I67" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="113">
+        <v>643</v>
+      </c>
+      <c r="F68" s="114">
+        <v>606</v>
+      </c>
+      <c r="G68" s="121">
+        <f t="shared" si="5"/>
+        <v>-6.1056105610560962E-2</v>
+      </c>
+      <c r="I68" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="113">
+        <v>343</v>
+      </c>
+      <c r="F69" s="114">
+        <v>339</v>
+      </c>
+      <c r="G69" s="119">
+        <f t="shared" si="5"/>
+        <v>-1.1799410029498469E-2</v>
+      </c>
+      <c r="I69" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="113">
+        <v>572</v>
+      </c>
+      <c r="F70" s="114">
+        <v>567</v>
+      </c>
+      <c r="G70" s="119">
+        <f t="shared" si="5"/>
+        <v>-8.818342151675429E-3</v>
+      </c>
+      <c r="I70" s="127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="113">
+        <v>150</v>
+      </c>
+      <c r="F71" s="114">
+        <v>144</v>
+      </c>
+      <c r="G71" s="116">
+        <f>1-E71/F71</f>
+        <v>-4.1666666666666741E-2</v>
+      </c>
+      <c r="I71" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="113">
+        <v>685</v>
+      </c>
+      <c r="F72" s="114">
+        <v>666</v>
+      </c>
+      <c r="G72" s="117">
+        <f t="shared" ref="G72:G75" si="6">1-E72/F72</f>
+        <v>-2.8528528528528607E-2</v>
+      </c>
+      <c r="I72" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" s="113">
+        <v>150</v>
+      </c>
+      <c r="F73" s="114">
+        <v>147</v>
+      </c>
+      <c r="G73" s="117">
+        <f t="shared" si="6"/>
+        <v>-2.0408163265306145E-2</v>
+      </c>
+      <c r="I73" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="113">
+        <v>150</v>
+      </c>
+      <c r="F74" s="114">
+        <v>148</v>
+      </c>
+      <c r="G74" s="120">
+        <f t="shared" si="6"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+      <c r="I74" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" s="113">
+        <v>150</v>
+      </c>
+      <c r="F75" s="114">
+        <v>149</v>
+      </c>
+      <c r="G75" s="119">
+        <f t="shared" si="6"/>
+        <v>-6.7114093959732557E-3</v>
+      </c>
+      <c r="I75" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C78" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="122"/>
+      <c r="E78" s="122"/>
+      <c r="F78" s="122"/>
+      <c r="G78" s="122"/>
+      <c r="I78" s="124" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C80" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="113">
+        <v>1519</v>
+      </c>
+      <c r="F81" s="114">
+        <v>1391</v>
+      </c>
+      <c r="G81" s="121">
+        <f>1-E81/F81</f>
+        <v>-9.2020129403306949E-2</v>
+      </c>
+      <c r="I81" s="127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="113">
+        <v>1331</v>
+      </c>
+      <c r="F82" s="114">
+        <v>1214</v>
+      </c>
+      <c r="G82" s="121">
+        <f t="shared" ref="G82:G87" si="7">1-E82/F82</f>
+        <v>-9.6375617792421764E-2</v>
+      </c>
+      <c r="I82" s="127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C83" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E83" s="113">
+        <v>904</v>
+      </c>
+      <c r="F83" s="114">
+        <v>838</v>
+      </c>
+      <c r="G83" s="121">
+        <f t="shared" si="7"/>
+        <v>-7.8758949880668228E-2</v>
+      </c>
+      <c r="I83" s="127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="113">
+        <v>804</v>
+      </c>
+      <c r="F84" s="114">
+        <v>709</v>
+      </c>
+      <c r="G84" s="129">
+        <f t="shared" si="7"/>
+        <v>-0.13399153737658676</v>
+      </c>
+      <c r="I84" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" s="113">
+        <v>804</v>
+      </c>
+      <c r="F85" s="114">
+        <v>708</v>
+      </c>
+      <c r="G85" s="130">
+        <f t="shared" si="7"/>
+        <v>-0.13559322033898313</v>
+      </c>
+      <c r="I85" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" s="113">
+        <v>429</v>
+      </c>
+      <c r="F86" s="114">
+        <v>378</v>
+      </c>
+      <c r="G86" s="130">
+        <f t="shared" si="7"/>
+        <v>-0.13492063492063489</v>
+      </c>
+      <c r="I86" s="127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E87" s="113">
+        <v>715</v>
+      </c>
+      <c r="F87" s="114">
+        <v>656</v>
+      </c>
+      <c r="G87" s="121">
+        <f t="shared" si="7"/>
+        <v>-8.9939024390243816E-2</v>
+      </c>
+      <c r="I87" s="127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="113">
+        <v>188</v>
+      </c>
+      <c r="F88" s="114">
+        <v>162</v>
+      </c>
+      <c r="G88" s="130">
+        <f>1-E88/F88</f>
+        <v>-0.16049382716049387</v>
+      </c>
+      <c r="I88" s="127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="113">
+        <v>856</v>
+      </c>
+      <c r="F89" s="114">
+        <v>744</v>
+      </c>
+      <c r="G89" s="130">
+        <f t="shared" ref="G89:G92" si="8">1-E89/F89</f>
+        <v>-0.15053763440860224</v>
+      </c>
+      <c r="I89" s="127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="113">
+        <v>188</v>
+      </c>
+      <c r="F90" s="114">
+        <v>175</v>
+      </c>
+      <c r="G90" s="121">
+        <f t="shared" si="8"/>
+        <v>-7.4285714285714288E-2</v>
+      </c>
+      <c r="I90" s="127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C91" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="113">
+        <v>188</v>
+      </c>
+      <c r="F91" s="114">
+        <v>174</v>
+      </c>
+      <c r="G91" s="128">
+        <f t="shared" si="8"/>
+        <v>-8.0459770114942541E-2</v>
+      </c>
+      <c r="I91" s="126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C92" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" s="113">
+        <v>188</v>
+      </c>
+      <c r="F92" s="114">
+        <v>176</v>
+      </c>
+      <c r="G92" s="121">
+        <f t="shared" si="8"/>
+        <v>-6.8181818181818121E-2</v>
+      </c>
+      <c r="I92" s="127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C78:G78"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>